--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35372888-2C64-4BF6-8585-42CC0B93F5B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456BC54-CDC7-4B80-9FC2-EFE4580CAA75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,8 +1487,8 @@
   </sheetPr>
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2543,7 +2543,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456BC54-CDC7-4B80-9FC2-EFE4580CAA75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58332FC8-A128-4CAE-A8DA-85BD32E0D4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="2" r:id="rId1"/>
     <sheet name="Trigger" sheetId="1" r:id="rId2"/>
-    <sheet name="Macors" sheetId="3" r:id="rId3"/>
+    <sheet name="Macros" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="394">
   <si>
     <t>Name</t>
   </si>
@@ -463,6 +463,710 @@
   </si>
   <si>
     <t>Enthält den Hofdatei-Index des zu schildernden Ziels</t>
+  </si>
+  <si>
+    <t>Aktueller Boot-Status:
+0 = Ausgeschaltet (keine Stromzufuhr)
+1 = Bootet gerade
+2 = Gebooted (läuft)
+3 = Akkumodus (keine Stromzufuhr, System läuft aber noch normal weiter)
+4 = Sleep-Modus (Einstellungen werden beibehalten, Bildschirm ist aber schwarz und nicht bedienbar)</t>
+  </si>
+  <si>
+    <t>Timer für den Bootvorgang</t>
+  </si>
+  <si>
+    <t>Timer für den verbleibenden Akku</t>
+  </si>
+  <si>
+    <t>Gibt an, ob die normalen haltestellenansagen gerade aktiviert sind</t>
+  </si>
+  <si>
+    <t>Gibt an, ob der Tastenton gerade aktiviert ist</t>
+  </si>
+  <si>
+    <t>Gibt an, ob die Auto-HFS deaktiviert wurde</t>
+  </si>
+  <si>
+    <t>Gibt an, ob gerade automatisch zwischen Haltestellenansicht und Hauptansicht gewechselt werden darf</t>
+  </si>
+  <si>
+    <t>Gibt die Anzahl der aktuell sichtbaren Eingabefelder an (0-3)</t>
+  </si>
+  <si>
+    <t>Gibt den Index des aktuellen Eingabefeldes an (0-2)</t>
+  </si>
+  <si>
+    <t>Gibt an, ob gerade überhaupt Eingabefelder sichtbar sind (eigentlich überflüssig, man kann ja einfach den Count auf 0 setzen?)</t>
+  </si>
+  <si>
+    <t>Gibt den aktuellen Routenmodus an:
+0 = keine Route)
+1 = Fahrplanmodus
+2 = Hofdateimodus</t>
+  </si>
+  <si>
+    <t>Enthält die aktuelle Liniennummer (Hofdatei-Modus)</t>
+  </si>
+  <si>
+    <t>Enthält die aktuelle Routennummer (Hofdatei-Modus)</t>
+  </si>
+  <si>
+    <t>Enthält den aktuelle Routenindex (Hofdatei-Modus)</t>
+  </si>
+  <si>
+    <t>Enthält das aktuelle Liniensuffix (Hofdatei-Modus)</t>
+  </si>
+  <si>
+    <t>Enthält den aktuellen Zielcode</t>
+  </si>
+  <si>
+    <t>Enthält den Index des aktuellen Zielcodes</t>
+  </si>
+  <si>
+    <t>Gibt an, ob ein Sonderziel gesetzt wurde</t>
+  </si>
+  <si>
+    <t>Enthält den Index der aktuellen Haltestelle</t>
+  </si>
+  <si>
+    <t>Enthält den aktuellen Haltestellenversatz
+Gewünschter Haltestellindex der Route minus Haltestellenindex im Fahrplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index des aktuell ausgewählten Tickets (-1, wenn keins ausgewählt)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index des aktuell ausgegebenen Tickets (-1, wenn keins ausgegeben)
+</t>
+  </si>
+  <si>
+    <t>Anzahl der Verkauften Tickets</t>
+  </si>
+  <si>
+    <t>Summer der Preise aller Verkauften Tickets (gesamte Einnahmen)</t>
+  </si>
+  <si>
+    <t>Anzahl der stornierten Tickets</t>
+  </si>
+  <si>
+    <t>??? (WIP)</t>
+  </si>
+  <si>
+    <t>Die visible-Variablen geben grundsätzlich an, ob etwas angezeigt werden soll (1) oder nicht (0)</t>
+  </si>
+  <si>
+    <t>Uhrzeit in der Ecke oben rechts</t>
+  </si>
+  <si>
+    <t>Verspätung</t>
+  </si>
+  <si>
+    <t>Routeninformationen (oben rechts)</t>
+  </si>
+  <si>
+    <t>Haltestellenliste</t>
+  </si>
+  <si>
+    <t>Buttons auf dem Hauptbildschirm</t>
+  </si>
+  <si>
+    <t>Zurück-Button</t>
+  </si>
+  <si>
+    <t>Menü-Button</t>
+  </si>
+  <si>
+    <t>Automatisch-Button</t>
+  </si>
+  <si>
+    <t>Zurücksetzen-Button</t>
+  </si>
+  <si>
+    <t>Bestätigen-Button</t>
+  </si>
+  <si>
+    <t>Haltestellenansicht-Button</t>
+  </si>
+  <si>
+    <t>Eingabefeld 0</t>
+  </si>
+  <si>
+    <t>Eingabefeld 1</t>
+  </si>
+  <si>
+    <t>Eingabefeld 2</t>
+  </si>
+  <si>
+    <t>Nummernblock</t>
+  </si>
+  <si>
+    <t>Ticketliste</t>
+  </si>
+  <si>
+    <t>Ticketauswahl</t>
+  </si>
+  <si>
+    <t>Fußleiste im Haltestellenmenü</t>
+  </si>
+  <si>
+    <t>Notwendig für die native Kompatibilität mit der Krüger++-Matrix</t>
+  </si>
+  <si>
+    <t>Index des aktuellen Ziels</t>
+  </si>
+  <si>
+    <t>Vollständiger Linie/Kurs-String (z.B. 07610 für "76E")</t>
+  </si>
+  <si>
+    <t>Liniensuffix (z.B. 10 für ("_E")</t>
+  </si>
+  <si>
+    <t>Fahrerkarte und Ticketdruck</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Drucker-Interface/Benutzeroberflächte</t>
+  </si>
+  <si>
+    <t>Visible-Werte</t>
+  </si>
+  <si>
+    <t>Sonstige</t>
+  </si>
+  <si>
+    <t>UI-Strings</t>
+  </si>
+  <si>
+    <t>API (Strings)</t>
+  </si>
+  <si>
+    <t>nuntius_api_timeStr</t>
+  </si>
+  <si>
+    <t>nuntius_api_busstop0</t>
+  </si>
+  <si>
+    <t>nuntius_api_lineStr</t>
+  </si>
+  <si>
+    <t>nuntius_api_terminusStr</t>
+  </si>
+  <si>
+    <t>Aktuelle Uhrzeit als String formatiert (z.B. "16:24")</t>
+  </si>
+  <si>
+    <t>Unmittelbar nächste Haltestelle</t>
+  </si>
+  <si>
+    <t>Folgehaltestellen</t>
+  </si>
+  <si>
+    <t>nuntius_api_busstop1 … 7</t>
+  </si>
+  <si>
+    <t>Aktuelle Liniennummer als String</t>
+  </si>
+  <si>
+    <t>Aktuelle Ziel-Bezeichnung</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_texture</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_time</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_delay</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_delayColor</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_line</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_terminus</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_input0</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_input1</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_input2</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_terminusPreview</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_currentTicketName</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_currentTicketPrice</t>
+  </si>
+  <si>
+    <t>Texturpfad zur aktuellen Bildschrimtextur</t>
+  </si>
+  <si>
+    <t>Uhrzeit/Datum</t>
+  </si>
+  <si>
+    <t>Texturpfad zur 1px-Farbtextur für die Verspätung</t>
+  </si>
+  <si>
+    <t>Ziel</t>
+  </si>
+  <si>
+    <t>Linie/Kurs, Route/Zielnr.</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_busstop0 … 4</t>
+  </si>
+  <si>
+    <t>Abfahrtszeiten an den Folgehaltestellen</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_busstopTime0 … 4</t>
+  </si>
+  <si>
+    <t>Ticketname und -Preis</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_ticket0 .. 7</t>
+  </si>
+  <si>
+    <t>Sonderziel-Vorschau</t>
+  </si>
+  <si>
+    <t>Name des aktuellen Tickets</t>
+  </si>
+  <si>
+    <t>Preis des aktuellen Tickets</t>
+  </si>
+  <si>
+    <t>nuntius_printer_init</t>
+  </si>
+  <si>
+    <t>nuntius_printer_frame</t>
+  </si>
+  <si>
+    <t>nuntius_updateTicket</t>
+  </si>
+  <si>
+    <t>nuntius_printer_bootHandler</t>
+  </si>
+  <si>
+    <t>nuntius_printer_boot</t>
+  </si>
+  <si>
+    <t>nuntius_printer_runEnergySaver</t>
+  </si>
+  <si>
+    <t>nuntius_printer_shutDown</t>
+  </si>
+  <si>
+    <t>nuntius_printer_turnScreenOff</t>
+  </si>
+  <si>
+    <t>nuntius_printer_turnScreenOn</t>
+  </si>
+  <si>
+    <t>nuntius_printer_autoOpenBusstopPage</t>
+  </si>
+  <si>
+    <t>nuntius_printer_autoOpenDeparturePage</t>
+  </si>
+  <si>
+    <t>nuntius_printer_refreshTime</t>
+  </si>
+  <si>
+    <t>nuntius_printer_refreshDelay</t>
+  </si>
+  <si>
+    <t>nuntius_printer_numpadEnter</t>
+  </si>
+  <si>
+    <t>nuntius_printer_focusInputField</t>
+  </si>
+  <si>
+    <t>nuntius_printer_checkLogin</t>
+  </si>
+  <si>
+    <t>nuntius_printer_checkLoginAfterBreak</t>
+  </si>
+  <si>
+    <t>nuntius_printer_shiftEnd</t>
+  </si>
+  <si>
+    <t>nuntius_printer_driverSwitch</t>
+  </si>
+  <si>
+    <t>nuntius_printer_loadTTTrip</t>
+  </si>
+  <si>
+    <t>nuntius_printer_loadHofTrip</t>
+  </si>
+  <si>
+    <t>nuntius_printer_removeTrip</t>
+  </si>
+  <si>
+    <t>nuntius_printer_resetTerminus</t>
+  </si>
+  <si>
+    <t>nuntius_printer_setTerminusIndex</t>
+  </si>
+  <si>
+    <t>nuntius_printer_setTerminus</t>
+  </si>
+  <si>
+    <t>nuntius_printer_refreshLineUI</t>
+  </si>
+  <si>
+    <t>nuntius_printer_refreshTerminusPreview</t>
+  </si>
+  <si>
+    <t>nuntius_printer_updateCurrentBusstopIndex</t>
+  </si>
+  <si>
+    <t>nuntius_printer_busstopJump</t>
+  </si>
+  <si>
+    <t>nuntius_printer_playBusstopAnnouncement</t>
+  </si>
+  <si>
+    <t>nuntius_printer_refreshBusstopList</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getBusstopListEntry</t>
+  </si>
+  <si>
+    <t>nuntius_printer_refreshBusstopTimeList</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getBusstopTimeListEntry</t>
+  </si>
+  <si>
+    <t>nuntius_printer_loadTickets</t>
+  </si>
+  <si>
+    <t>nuntius_printer_barTicket</t>
+  </si>
+  <si>
+    <t>nuntius_printer_selectTicket</t>
+  </si>
+  <si>
+    <t>nuntius_printer_cancelTicket</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getTicketPrice</t>
+  </si>
+  <si>
+    <t>nuntius_ticketPrintHandler</t>
+  </si>
+  <si>
+    <t>nuntius_printer_toggleAutoHFS</t>
+  </si>
+  <si>
+    <t>nuntius_printer_goToPage</t>
+  </si>
+  <si>
+    <t>nuntius_printer_resetInputFields</t>
+  </si>
+  <si>
+    <t>nuntius_printer_hideAllUiElements</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsTime</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsDelay</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsLineInformation</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsBusstopList</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsHomeButtons</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsInput0 … 2</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsNumpad</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsTicketList</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsTicketSelection</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsBusstopFooter</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsButtonBack</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsButtonApply</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsButtonReset</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsButtonAuto</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsButtonMenu</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsButtonBusstopMenu</t>
+  </si>
+  <si>
+    <t>nuntius_printer_playSoundNormal</t>
+  </si>
+  <si>
+    <t>nuntius_printer_playSoundError</t>
+  </si>
+  <si>
+    <t>Konstruktur - dient zur Initialisierung</t>
+  </si>
+  <si>
+    <t>Frame-Block - wird in jedem Frame ausgeführt, um Daten zu aktualisieren</t>
+  </si>
+  <si>
+    <t>Wenn der Fahrgast das Ticket nimmt, wird die Animation zurückgesetzt und das Ticket unsichtbar gemacht</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Führt den Bootvorgang aus</t>
+  </si>
+  <si>
+    <t>Verwaltet den Bootvorgang</t>
+  </si>
+  <si>
+    <t>Führt den Energiesparmodus aus</t>
+  </si>
+  <si>
+    <t>Fährt den Drucker herunter</t>
+  </si>
+  <si>
+    <t>Schaltet den Bildschirm aus</t>
+  </si>
+  <si>
+    <t>Schaltet den Bildschirm an</t>
+  </si>
+  <si>
+    <t>Öffnet/schließt ggf. automatisch die Haltestellenansicht</t>
+  </si>
+  <si>
+    <t>Öffnet ggf. automatisch die Abfahrtsanzeige</t>
+  </si>
+  <si>
+    <t>Aktualisiert die Uhrzeit/Datumsanzeige</t>
+  </si>
+  <si>
+    <t>Aktualisiert die Verspätungsanzeige</t>
+  </si>
+  <si>
+    <t>Gibt eine neue Zahl ein</t>
+  </si>
+  <si>
+    <t>Die gewünschte Ziffer (0-9) oder 10 für Backspace</t>
+  </si>
+  <si>
+    <t>Bestätigt die Eingabe (springt ins nächste Feld, bzw. bestätigt nach dem letzten Feld die gesamte Eingabe)</t>
+  </si>
+  <si>
+    <t>Führt den Bestätigen-Befehl aus</t>
+  </si>
+  <si>
+    <t>Führt den Zurücksetzen-Befehl aus</t>
+  </si>
+  <si>
+    <t>Führt den Automatisch-Befehl aus</t>
+  </si>
+  <si>
+    <t>Führt den Zurück-Befehl aus</t>
+  </si>
+  <si>
+    <t>Fokussiert ein Eingabefeld</t>
+  </si>
+  <si>
+    <t>Index des gewünschten Eingabefelds (0-2)</t>
+  </si>
+  <si>
+    <t>Überprüft, ob die Login-Eingaben nach der Pause (nur Pin) korrekt sind, und springt ggf. auf den Hauptbildschirm</t>
+  </si>
+  <si>
+    <t>Überprüft, ob die Login-Eingaben (FahrderID und Pin) korrekt sind, und springt ggf. auf den Hauptbildschirm</t>
+  </si>
+  <si>
+    <t>Beendet die Schicht und loggt den Fahrer aus</t>
+  </si>
+  <si>
+    <t>Führt einen Fahrerwechsel durch (Fahrer wird ausgeloggt, Schicht aber nicht beendet)</t>
+  </si>
+  <si>
+    <t>Lädt die aktuelle Fahrt aus dem Fahrplan</t>
+  </si>
+  <si>
+    <t>Lädt die aktuelle Fahrt aus der Hofdatei mithilfe der Angaben aus den Eingabefeldern</t>
+  </si>
+  <si>
+    <t>Entfernt die aktuelle Fahrt</t>
+  </si>
+  <si>
+    <t>Setzt ein Sonderziel</t>
+  </si>
+  <si>
+    <t>Entfernt das Sonderziel und setzt es auf das Standardziel der aktuellen Route</t>
+  </si>
+  <si>
+    <t>Setzt den aktuellen Terminus auf den Index</t>
+  </si>
+  <si>
+    <t>Index des gewünschten Terminus</t>
+  </si>
+  <si>
+    <t>Setzt den aktuellen Terminus auf den Terminus-Code</t>
+  </si>
+  <si>
+    <t>Terminus-Code</t>
+  </si>
+  <si>
+    <t>Aktualisiert die Linienanzeige</t>
+  </si>
+  <si>
+    <t>Aktualisiert die Zielvorschau</t>
+  </si>
+  <si>
+    <t>aktualisiert automatisch den Busstop-Index (springt ggf. eine Haltestelle weiter und spielt ggf. die Haltestellenansage ab)</t>
+  </si>
+  <si>
+    <t>Springt zu einer Bushaltestelle</t>
+  </si>
+  <si>
+    <t>"Sprungweite" (2 = zwei weiter; -1 = eine zurück)</t>
+  </si>
+  <si>
+    <t>Spielt die aktuelle Haltestellenansage ab</t>
+  </si>
+  <si>
+    <t>Aktualisiert die Haltestellenliste</t>
+  </si>
+  <si>
+    <t>Aktualisiert die Uhrzeiten der Haltestellenliste</t>
+  </si>
+  <si>
+    <t>Gibt den Namen der Haltestelle an Position x zurück</t>
+  </si>
+  <si>
+    <t>Haltestellenindex (0 = unmittelbar nächste, 4 = Maximalwert)</t>
+  </si>
+  <si>
+    <t>Gibt die Abfahrtszeit der Haltestelle an Position x zurück</t>
+  </si>
+  <si>
+    <t>lädt alle Tickets</t>
+  </si>
+  <si>
+    <t>Wählt Ticket x aus</t>
+  </si>
+  <si>
+    <t>Index des gewählten Tickets (0-7)</t>
+  </si>
+  <si>
+    <t>Bestätigt den Ticketverkauf und startet den Druck</t>
+  </si>
+  <si>
+    <t>Storniert das Ticket und druckt den Stornobeleg</t>
+  </si>
+  <si>
+    <t>Gibt den Preis des Tickets mit Index x als String zurück</t>
+  </si>
+  <si>
+    <t>Index des Tickets (0-7)</t>
+  </si>
+  <si>
+    <t>Verwaltet den Druckvorgang des Tickets</t>
+  </si>
+  <si>
+    <t>schaltet die auto-HFS ein oder aus</t>
+  </si>
+  <si>
+    <t>Wechselt zur Seite mit ID x</t>
+  </si>
+  <si>
+    <t>ID der Zielseite</t>
+  </si>
+  <si>
+    <t>Setzt alle Eingabefelder zurück</t>
+  </si>
+  <si>
+    <t>Versteckt alle UI-Elemente</t>
+  </si>
+  <si>
+    <t>zeigt das jeweilige Element an, oder blendet es aus (0 oder 1)</t>
+  </si>
+  <si>
+    <t>Anzeigen (1) oder Ausblenden (0)?</t>
+  </si>
+  <si>
+    <t>Spielt den normalen Tastensound ab, sofern Tastensounds aktiviert sind</t>
+  </si>
+  <si>
+    <t>Spielt den Fehlersound ab, sofern Tastensounds aktiviert sind</t>
+  </si>
+  <si>
+    <t>Gibt den Namen der letzten Haltestelle zurück</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getLastBusstopListEntry</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getLastBusstopTimeListEntry</t>
+  </si>
+  <si>
+    <t>Gibt die Ankunftszeit der letzten Haltestelle zurück</t>
+  </si>
+  <si>
+    <t>nuntius_printer_playSpecialAnnouncement</t>
+  </si>
+  <si>
+    <t>Spielt die Sonderansage mit Index x ab</t>
+  </si>
+  <si>
+    <t>Index der Sonderansage</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visAnnouncements</t>
+  </si>
+  <si>
+    <t>Sonderansagen</t>
+  </si>
+  <si>
+    <t>nuntius_printer_announcement0 … 3</t>
+  </si>
+  <si>
+    <t>Spielt eine Sonderansage ab</t>
+  </si>
+  <si>
+    <t>nuntius_printer_progressbarAnim</t>
+  </si>
+  <si>
+    <t>Animationsvariable für den Fortschrittsbalken</t>
   </si>
   <si>
     <t>ID der aktuell geöffneten Seite/Dialog:
@@ -479,719 +1183,55 @@
 9 = Fahrerwechsel
 10 = Schichtende
 11 = "Bitte abfahren!"
+12 = Nächste Fahrt bestätigen
 91 = Logout zum Fahrerwechsel
 101 = Logout nach  dem Schichtende
 20 = Hauptmenü</t>
   </si>
   <si>
-    <t>Aktueller Boot-Status:
-0 = Ausgeschaltet (keine Stromzufuhr)
-1 = Bootet gerade
-2 = Gebooted (läuft)
-3 = Akkumodus (keine Stromzufuhr, System läuft aber noch normal weiter)
-4 = Sleep-Modus (Einstellungen werden beibehalten, Bildschirm ist aber schwarz und nicht bedienbar)</t>
-  </si>
-  <si>
-    <t>Timer für den Bootvorgang</t>
-  </si>
-  <si>
-    <t>Timer für den verbleibenden Akku</t>
-  </si>
-  <si>
-    <t>Gibt an, ob die normalen haltestellenansagen gerade aktiviert sind</t>
-  </si>
-  <si>
-    <t>Gibt an, ob der Tastenton gerade aktiviert ist</t>
-  </si>
-  <si>
-    <t>Gibt an, ob die Auto-HFS deaktiviert wurde</t>
-  </si>
-  <si>
-    <t>Gibt an, ob gerade automatisch zwischen Haltestellenansicht und Hauptansicht gewechselt werden darf</t>
-  </si>
-  <si>
-    <t>Gibt die Anzahl der aktuell sichtbaren Eingabefelder an (0-3)</t>
-  </si>
-  <si>
-    <t>Gibt den Index des aktuellen Eingabefeldes an (0-2)</t>
-  </si>
-  <si>
-    <t>Gibt an, ob gerade überhaupt Eingabefelder sichtbar sind (eigentlich überflüssig, man kann ja einfach den Count auf 0 setzen?)</t>
-  </si>
-  <si>
-    <t>Gibt den aktuellen Routenmodus an:
-0 = keine Route)
-1 = Fahrplanmodus
-2 = Hofdateimodus</t>
-  </si>
-  <si>
-    <t>Enthält die aktuelle Liniennummer (Hofdatei-Modus)</t>
-  </si>
-  <si>
-    <t>Enthält die aktuelle Routennummer (Hofdatei-Modus)</t>
-  </si>
-  <si>
-    <t>Enthält den aktuelle Routenindex (Hofdatei-Modus)</t>
-  </si>
-  <si>
-    <t>Enthält das aktuelle Liniensuffix (Hofdatei-Modus)</t>
-  </si>
-  <si>
-    <t>Enthält den aktuellen Zielcode</t>
-  </si>
-  <si>
-    <t>Enthält den Index des aktuellen Zielcodes</t>
-  </si>
-  <si>
-    <t>Gibt an, ob ein Sonderziel gesetzt wurde</t>
-  </si>
-  <si>
-    <t>Enthält den Index der aktuellen Haltestelle</t>
-  </si>
-  <si>
-    <t>Enthält den aktuellen Haltestellenversatz
-Gewünschter Haltestellindex der Route minus Haltestellenindex im Fahrplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index des aktuell ausgewählten Tickets (-1, wenn keins ausgewählt)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index des aktuell ausgegebenen Tickets (-1, wenn keins ausgegeben)
-</t>
-  </si>
-  <si>
-    <t>Anzahl der Verkauften Tickets</t>
-  </si>
-  <si>
-    <t>Summer der Preise aller Verkauften Tickets (gesamte Einnahmen)</t>
-  </si>
-  <si>
-    <t>Anzahl der stornierten Tickets</t>
-  </si>
-  <si>
-    <t>??? (WIP)</t>
-  </si>
-  <si>
-    <t>Die visible-Variablen geben grundsätzlich an, ob etwas angezeigt werden soll (1) oder nicht (0)</t>
-  </si>
-  <si>
-    <t>Uhrzeit in der Ecke oben rechts</t>
-  </si>
-  <si>
-    <t>Verspätung</t>
-  </si>
-  <si>
-    <t>Routeninformationen (oben rechts)</t>
-  </si>
-  <si>
-    <t>Haltestellenliste</t>
-  </si>
-  <si>
-    <t>Buttons auf dem Hauptbildschirm</t>
-  </si>
-  <si>
-    <t>Zurück-Button</t>
-  </si>
-  <si>
-    <t>Menü-Button</t>
-  </si>
-  <si>
-    <t>Automatisch-Button</t>
-  </si>
-  <si>
-    <t>Zurücksetzen-Button</t>
-  </si>
-  <si>
-    <t>Bestätigen-Button</t>
-  </si>
-  <si>
-    <t>Haltestellenansicht-Button</t>
-  </si>
-  <si>
-    <t>Eingabefeld 0</t>
-  </si>
-  <si>
-    <t>Eingabefeld 1</t>
-  </si>
-  <si>
-    <t>Eingabefeld 2</t>
-  </si>
-  <si>
-    <t>Nummernblock</t>
-  </si>
-  <si>
-    <t>Ticketliste</t>
-  </si>
-  <si>
-    <t>Ticketauswahl</t>
-  </si>
-  <si>
-    <t>Fußleiste im Haltestellenmenü</t>
-  </si>
-  <si>
-    <t>Notwendig für die native Kompatibilität mit der Krüger++-Matrix</t>
-  </si>
-  <si>
-    <t>Index des aktuellen Ziels</t>
-  </si>
-  <si>
-    <t>Vollständiger Linie/Kurs-String (z.B. 07610 für "76E")</t>
-  </si>
-  <si>
-    <t>Liniensuffix (z.B. 10 für ("_E")</t>
-  </si>
-  <si>
-    <t>Fahrerkarte und Ticketdruck</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Drucker-Interface/Benutzeroberflächte</t>
-  </si>
-  <si>
-    <t>Visible-Werte</t>
-  </si>
-  <si>
-    <t>Sonstige</t>
-  </si>
-  <si>
-    <t>UI-Strings</t>
-  </si>
-  <si>
-    <t>API (Strings)</t>
-  </si>
-  <si>
-    <t>nuntius_api_timeStr</t>
-  </si>
-  <si>
-    <t>nuntius_api_busstop0</t>
-  </si>
-  <si>
-    <t>nuntius_api_lineStr</t>
-  </si>
-  <si>
-    <t>nuntius_api_terminusStr</t>
-  </si>
-  <si>
-    <t>Aktuelle Uhrzeit als String formatiert (z.B. "16:24")</t>
-  </si>
-  <si>
-    <t>Unmittelbar nächste Haltestelle</t>
-  </si>
-  <si>
-    <t>Folgehaltestellen</t>
-  </si>
-  <si>
-    <t>nuntius_api_busstop1 … 7</t>
-  </si>
-  <si>
-    <t>Aktuelle Liniennummer als String</t>
-  </si>
-  <si>
-    <t>Aktuelle Ziel-Bezeichnung</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_texture</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_time</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_delay</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_delayColor</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_line</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_terminus</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_input0</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_input1</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_input2</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_terminusPreview</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_currentTicketName</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_currentTicketPrice</t>
-  </si>
-  <si>
-    <t>Texturpfad zur aktuellen Bildschrimtextur</t>
-  </si>
-  <si>
-    <t>Uhrzeit/Datum</t>
-  </si>
-  <si>
-    <t>Texturpfad zur 1px-Farbtextur für die Verspätung</t>
-  </si>
-  <si>
-    <t>Ziel</t>
-  </si>
-  <si>
-    <t>Linie/Kurs, Route/Zielnr.</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_busstop0 … 4</t>
-  </si>
-  <si>
-    <t>Abfahrtszeiten an den Folgehaltestellen</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_busstopTime0 … 4</t>
-  </si>
-  <si>
-    <t>Ticketname und -Preis</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_ticket0 .. 7</t>
-  </si>
-  <si>
-    <t>Sonderziel-Vorschau</t>
-  </si>
-  <si>
-    <t>Name des aktuellen Tickets</t>
-  </si>
-  <si>
-    <t>Preis des aktuellen Tickets</t>
-  </si>
-  <si>
-    <t>nuntius_printer_init</t>
-  </si>
-  <si>
-    <t>nuntius_printer_frame</t>
-  </si>
-  <si>
-    <t>nuntius_updateTicket</t>
-  </si>
-  <si>
-    <t>nuntius_printer_bootHandler</t>
-  </si>
-  <si>
-    <t>nuntius_printer_boot</t>
-  </si>
-  <si>
-    <t>nuntius_printer_runEnergySaver</t>
-  </si>
-  <si>
-    <t>nuntius_printer_shutDown</t>
-  </si>
-  <si>
-    <t>nuntius_printer_turnScreenOff</t>
-  </si>
-  <si>
-    <t>nuntius_printer_turnScreenOn</t>
-  </si>
-  <si>
-    <t>nuntius_printer_autoOpenBusstopPage</t>
-  </si>
-  <si>
-    <t>nuntius_printer_autoOpenDeparturePage</t>
-  </si>
-  <si>
-    <t>nuntius_printer_refreshTime</t>
-  </si>
-  <si>
-    <t>nuntius_printer_refreshDelay</t>
-  </si>
-  <si>
-    <t>nuntius_printer_numpadEnter</t>
-  </si>
-  <si>
-    <t>nuntius_printer_focusInputField</t>
-  </si>
-  <si>
-    <t>nuntius_printer_checkLogin</t>
-  </si>
-  <si>
-    <t>nuntius_printer_checkLoginAfterBreak</t>
-  </si>
-  <si>
-    <t>nuntius_printer_shiftEnd</t>
-  </si>
-  <si>
-    <t>nuntius_printer_driverSwitch</t>
-  </si>
-  <si>
-    <t>nuntius_printer_autoRefreshTerminus</t>
-  </si>
-  <si>
-    <t>nuntius_printer_loadTTTrip</t>
-  </si>
-  <si>
-    <t>nuntius_printer_loadHofTrip</t>
-  </si>
-  <si>
-    <t>nuntius_printer_removeTrip</t>
-  </si>
-  <si>
-    <t>nuntius_printer_resetTerminus</t>
-  </si>
-  <si>
-    <t>nuntius_printer_setTerminusIndex</t>
-  </si>
-  <si>
-    <t>nuntius_printer_setTerminus</t>
-  </si>
-  <si>
-    <t>nuntius_printer_refreshLineUI</t>
-  </si>
-  <si>
-    <t>nuntius_printer_refreshTerminusPreview</t>
-  </si>
-  <si>
-    <t>nuntius_printer_updateCurrentBusstopIndex</t>
-  </si>
-  <si>
-    <t>nuntius_printer_busstopJump</t>
-  </si>
-  <si>
-    <t>nuntius_printer_playBusstopAnnouncement</t>
-  </si>
-  <si>
-    <t>nuntius_printer_refreshBusstopList</t>
-  </si>
-  <si>
-    <t>nuntius_printer_getBusstopListEntry</t>
-  </si>
-  <si>
-    <t>nuntius_printer_refreshBusstopTimeList</t>
-  </si>
-  <si>
-    <t>nuntius_printer_getBusstopTimeListEntry</t>
-  </si>
-  <si>
-    <t>nuntius_printer_loadTickets</t>
-  </si>
-  <si>
-    <t>nuntius_printer_barTicket</t>
-  </si>
-  <si>
-    <t>nuntius_printer_selectTicket</t>
-  </si>
-  <si>
-    <t>nuntius_printer_cancelTicket</t>
-  </si>
-  <si>
-    <t>nuntius_printer_getTicketPrice</t>
-  </si>
-  <si>
-    <t>nuntius_ticketPrintHandler</t>
-  </si>
-  <si>
-    <t>nuntius_printer_toggleAutoHFS</t>
-  </si>
-  <si>
-    <t>nuntius_printer_goToPage</t>
-  </si>
-  <si>
-    <t>nuntius_printer_resetInputFields</t>
-  </si>
-  <si>
-    <t>nuntius_printer_hideAllUiElements</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsTime</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsDelay</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsLineInformation</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsBusstopList</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsHomeButtons</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsInput0 … 2</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsNumpad</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsTicketList</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsTicketSelection</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsBusstopFooter</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsButtonBack</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsButtonApply</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsButtonReset</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsButtonAuto</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsButtonMenu</t>
-  </si>
-  <si>
-    <t>nuntius_printer_showUiElementsButtonBusstopMenu</t>
-  </si>
-  <si>
-    <t>nuntius_printer_playSoundNormal</t>
-  </si>
-  <si>
-    <t>nuntius_printer_playSoundError</t>
-  </si>
-  <si>
-    <t>Konstruktur - dient zur Initialisierung</t>
-  </si>
-  <si>
-    <t>Frame-Block - wird in jedem Frame ausgeführt, um Daten zu aktualisieren</t>
-  </si>
-  <si>
-    <t>Wenn der Fahrgast das Ticket nimmt, wird die Animation zurückgesetzt und das Ticket unsichtbar gemacht</t>
-  </si>
-  <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Führt den Bootvorgang aus</t>
-  </si>
-  <si>
-    <t>Verwaltet den Bootvorgang</t>
-  </si>
-  <si>
-    <t>Führt den Energiesparmodus aus</t>
-  </si>
-  <si>
-    <t>Fährt den Drucker herunter</t>
-  </si>
-  <si>
-    <t>Schaltet den Bildschirm aus</t>
-  </si>
-  <si>
-    <t>Schaltet den Bildschirm an</t>
-  </si>
-  <si>
-    <t>Öffnet/schließt ggf. automatisch die Haltestellenansicht</t>
-  </si>
-  <si>
-    <t>Öffnet ggf. automatisch die Abfahrtsanzeige</t>
-  </si>
-  <si>
-    <t>Aktualisiert die Uhrzeit/Datumsanzeige</t>
-  </si>
-  <si>
-    <t>Aktualisiert die Verspätungsanzeige</t>
-  </si>
-  <si>
-    <t>Gibt eine neue Zahl ein</t>
-  </si>
-  <si>
-    <t>Die gewünschte Ziffer (0-9) oder 10 für Backspace</t>
-  </si>
-  <si>
-    <t>Bestätigt die Eingabe (springt ins nächste Feld, bzw. bestätigt nach dem letzten Feld die gesamte Eingabe)</t>
-  </si>
-  <si>
-    <t>Führt den Bestätigen-Befehl aus</t>
-  </si>
-  <si>
-    <t>Führt den Zurücksetzen-Befehl aus</t>
-  </si>
-  <si>
-    <t>Führt den Automatisch-Befehl aus</t>
-  </si>
-  <si>
-    <t>Führt den Zurück-Befehl aus</t>
-  </si>
-  <si>
-    <t>Fokussiert ein Eingabefeld</t>
-  </si>
-  <si>
-    <t>Index des gewünschten Eingabefelds (0-2)</t>
-  </si>
-  <si>
-    <t>Überprüft, ob die Login-Eingaben nach der Pause (nur Pin) korrekt sind, und springt ggf. auf den Hauptbildschirm</t>
-  </si>
-  <si>
-    <t>Überprüft, ob die Login-Eingaben (FahrderID und Pin) korrekt sind, und springt ggf. auf den Hauptbildschirm</t>
-  </si>
-  <si>
-    <t>Beendet die Schicht und loggt den Fahrer aus</t>
-  </si>
-  <si>
-    <t>Führt einen Fahrerwechsel durch (Fahrer wird ausgeloggt, Schicht aber nicht beendet)</t>
-  </si>
-  <si>
-    <t>Aktualisiert ggf. automatisch das aktuelle Ziel, wenn es sich ändert (z.B. am ende einer Fahrt)</t>
-  </si>
-  <si>
-    <t>Lädt die aktuelle Fahrt aus dem Fahrplan</t>
-  </si>
-  <si>
-    <t>Lädt die aktuelle Fahrt aus der Hofdatei mithilfe der Angaben aus den Eingabefeldern</t>
-  </si>
-  <si>
-    <t>Entfernt die aktuelle Fahrt</t>
-  </si>
-  <si>
-    <t>Setzt ein Sonderziel</t>
-  </si>
-  <si>
-    <t>Entfernt das Sonderziel und setzt es auf das Standardziel der aktuellen Route</t>
-  </si>
-  <si>
-    <t>Setzt den aktuellen Terminus auf den Index</t>
-  </si>
-  <si>
-    <t>Index des gewünschten Terminus</t>
-  </si>
-  <si>
-    <t>Setzt den aktuellen Terminus auf den Terminus-Code</t>
-  </si>
-  <si>
-    <t>Terminus-Code</t>
-  </si>
-  <si>
-    <t>Aktualisiert die Linienanzeige</t>
-  </si>
-  <si>
-    <t>Aktualisiert die Zielvorschau</t>
-  </si>
-  <si>
-    <t>aktualisiert automatisch den Busstop-Index (springt ggf. eine Haltestelle weiter und spielt ggf. die Haltestellenansage ab)</t>
-  </si>
-  <si>
-    <t>Springt zu einer Bushaltestelle</t>
-  </si>
-  <si>
-    <t>"Sprungweite" (2 = zwei weiter; -1 = eine zurück)</t>
-  </si>
-  <si>
-    <t>Spielt die aktuelle Haltestellenansage ab</t>
-  </si>
-  <si>
-    <t>Aktualisiert die Haltestellenliste</t>
-  </si>
-  <si>
-    <t>Aktualisiert die Uhrzeiten der Haltestellenliste</t>
-  </si>
-  <si>
-    <t>Gibt den Namen der Haltestelle an Position x zurück</t>
-  </si>
-  <si>
-    <t>Haltestellenindex (0 = unmittelbar nächste, 4 = Maximalwert)</t>
-  </si>
-  <si>
-    <t>Gibt die Abfahrtszeit der Haltestelle an Position x zurück</t>
-  </si>
-  <si>
-    <t>lädt alle Tickets</t>
-  </si>
-  <si>
-    <t>Wählt Ticket x aus</t>
-  </si>
-  <si>
-    <t>Index des gewählten Tickets (0-7)</t>
-  </si>
-  <si>
-    <t>Bestätigt den Ticketverkauf und startet den Druck</t>
-  </si>
-  <si>
-    <t>Storniert das Ticket und druckt den Stornobeleg</t>
-  </si>
-  <si>
-    <t>Gibt den Preis des Tickets mit Index x als String zurück</t>
-  </si>
-  <si>
-    <t>Index des Tickets (0-7)</t>
-  </si>
-  <si>
-    <t>Verwaltet den Druckvorgang des Tickets</t>
-  </si>
-  <si>
-    <t>schaltet die auto-HFS ein oder aus</t>
-  </si>
-  <si>
-    <t>Wechselt zur Seite mit ID x</t>
-  </si>
-  <si>
-    <t>ID der Zielseite</t>
-  </si>
-  <si>
-    <t>Setzt alle Eingabefelder zurück</t>
-  </si>
-  <si>
-    <t>Versteckt alle UI-Elemente</t>
-  </si>
-  <si>
-    <t>zeigt das jeweilige Element an, oder blendet es aus (0 oder 1)</t>
-  </si>
-  <si>
-    <t>Anzeigen (1) oder Ausblenden (0)?</t>
-  </si>
-  <si>
-    <t>Spielt den normalen Tastensound ab, sofern Tastensounds aktiviert sind</t>
-  </si>
-  <si>
-    <t>Spielt den Fehlersound ab, sofern Tastensounds aktiviert sind</t>
-  </si>
-  <si>
-    <t>Gibt den Namen der letzten Haltestelle zurück</t>
-  </si>
-  <si>
-    <t>nuntius_printer_getLastBusstopListEntry</t>
-  </si>
-  <si>
-    <t>nuntius_printer_getLastBusstopTimeListEntry</t>
-  </si>
-  <si>
-    <t>Gibt die Ankunftszeit der letzten Haltestelle zurück</t>
-  </si>
-  <si>
-    <t>nuntius_printer_playSpecialAnnouncement</t>
-  </si>
-  <si>
-    <t>Spielt die Sonderansage mit Index x ab</t>
-  </si>
-  <si>
-    <t>Index der Sonderansage</t>
-  </si>
-  <si>
-    <t>nuntius_printer_visAnnouncements</t>
-  </si>
-  <si>
-    <t>Sonderansagen</t>
-  </si>
-  <si>
-    <t>nuntius_printer_announcement0 … 3</t>
-  </si>
-  <si>
-    <t>Spielt eine Sonderansage ab</t>
-  </si>
-  <si>
-    <t>nuntius_printer_progressbarAnim</t>
-  </si>
-  <si>
-    <t>Animationsvariable für den Fortschrittsbalken</t>
+    <t>nuntius_printer_autoOpenConfirmNextTripPage</t>
+  </si>
+  <si>
+    <t>Öffnet ggf. automatisch die Bestätigung zum Start einer neuen Fahrt</t>
+  </si>
+  <si>
+    <t>nuntius_printer_acceptNextTrip</t>
+  </si>
+  <si>
+    <t>Akzeptiert die Bestätigung zum starten einer neuen Fahrt (stellt das Ziel um)</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visPleaseWait</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visConfirmNextTrip</t>
+  </si>
+  <si>
+    <t>Bitte-Warten</t>
+  </si>
+  <si>
+    <t>Nächste Fahrt bestätigen</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_confirmNextTripText</t>
+  </si>
+  <si>
+    <t>Textfeld für die Anzeige "Nächste Fahrt bestätigen (Linie, Ziel, An/Ab)</t>
+  </si>
+  <si>
+    <t>nuntius_printer_denyNextTrip</t>
+  </si>
+  <si>
+    <t>nuntius_printer_acceptNextTripWithBreak</t>
+  </si>
+  <si>
+    <t>Bestätigt die nächste Fahrt</t>
+  </si>
+  <si>
+    <t>Lehnt die nächste Fahrt ab und schaltet den Routenmodus auf 0</t>
+  </si>
+  <si>
+    <t>Bestätigt die nächste Fahrt und schaltet in den Pause-Modus</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1525,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1547,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -1553,7 +1593,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -1599,62 +1639,62 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="297" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -1662,7 +1702,7 @@
         <v>90</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1670,7 +1710,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,7 +1718,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1726,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1734,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1742,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1710,7 +1750,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1718,7 +1758,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1726,7 +1766,7 @@
         <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,7 +1774,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -1742,7 +1782,7 @@
         <v>100</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1750,7 +1790,7 @@
         <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1798,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +1806,7 @@
         <v>103</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1774,7 +1814,7 @@
         <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1822,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1790,7 +1830,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1798,7 +1838,7 @@
         <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1806,7 +1846,7 @@
         <v>108</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1814,7 +1854,7 @@
         <v>109</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1822,7 +1862,7 @@
         <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1830,7 +1870,7 @@
         <v>111</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1878,7 @@
         <v>112</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,7 +1886,7 @@
         <v>113</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1854,7 +1894,7 @@
         <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1862,15 +1902,15 @@
         <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,13 +1919,13 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1893,7 +1933,7 @@
         <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +1941,7 @@
         <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1909,7 +1949,7 @@
         <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1917,7 +1957,7 @@
         <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1925,7 +1965,7 @@
         <v>120</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1973,7 @@
         <v>121</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,7 +1981,7 @@
         <v>122</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1949,7 +1989,7 @@
         <v>123</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1957,7 +1997,7 @@
         <v>124</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +2005,7 @@
         <v>125</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +2013,7 @@
         <v>126</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,7 +2021,7 @@
         <v>127</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1989,7 +2029,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1997,7 +2037,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2005,7 +2045,7 @@
         <v>130</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2013,7 +2053,7 @@
         <v>131</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2021,7 +2061,7 @@
         <v>132</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,190 +2069,214 @@
         <v>133</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="3"/>
+      <c r="A74" t="s">
+        <v>383</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="6"/>
+      <c r="A75" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="A77" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>135</v>
-      </c>
       <c r="B78" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>226</v>
+      <c r="B81" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>215</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="A83" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>387</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A77:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2525,11 +2589,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2540,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2563,7 +2627,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2592,373 +2656,364 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
         <v>304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D15" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="D16" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>322</v>
+      </c>
+      <c r="D22" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>389</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="B29" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
-      </c>
-      <c r="D32" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s">
-        <v>338</v>
-      </c>
-      <c r="D33" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
-      </c>
-      <c r="C36" t="s">
-        <v>306</v>
+        <v>333</v>
+      </c>
+      <c r="D36" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D37" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
-        <v>373</v>
-      </c>
-      <c r="D38" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2966,268 +3021,310 @@
         <v>369</v>
       </c>
       <c r="B42" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="D42" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
-      </c>
-      <c r="C43" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D44" t="s">
-        <v>349</v>
+        <v>343</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>371</v>
+        <v>345</v>
+      </c>
+      <c r="D45" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>352</v>
-      </c>
-      <c r="D47" t="s">
-        <v>353</v>
+        <v>344</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>354</v>
+        <v>347</v>
+      </c>
+      <c r="D48" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B50" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
-      </c>
-      <c r="C51" t="s">
-        <v>306</v>
+        <v>349</v>
+      </c>
+      <c r="D51" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
-      </c>
-      <c r="D53" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="D54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>284</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>365</v>
+        <v>279</v>
+      </c>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+      <c r="D57" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>285</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="D59" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="B58" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>287</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="D60" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="B60" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="D61" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B62" s="7"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B63" s="7"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B64" s="7"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B65" s="7"/>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B66" s="7"/>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B67" s="7"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B68" s="7"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B69" s="7"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B70" s="7"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B71" s="7"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B72" s="7"/>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>300</v>
-      </c>
-      <c r="B73" t="s">
-        <v>366</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>301</v>
-      </c>
-      <c r="B74" t="s">
-        <v>367</v>
+        <v>295</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B57:B72"/>
-    <mergeCell ref="D57:D72"/>
+    <mergeCell ref="B61:B76"/>
+    <mergeCell ref="D61:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58332FC8-A128-4CAE-A8DA-85BD32E0D4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FFC61-7137-48E8-BD99-2B64BBA4E1EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="404">
   <si>
     <t>Name</t>
   </si>
@@ -1232,6 +1232,36 @@
   </si>
   <si>
     <t>Bestätigt die nächste Fahrt und schaltet in den Pause-Modus</t>
+  </si>
+  <si>
+    <t>Schildert automatisch auf "Fahrtende", sobald die letzte Haltestelle erreicht wird</t>
+  </si>
+  <si>
+    <t>nuntius_printer_autoSetTripEndTerminus</t>
+  </si>
+  <si>
+    <t>nuntius_printer_option_terminusCodeTripEnd</t>
+  </si>
+  <si>
+    <t>nuntius_printer_option_terminusCodeBreak</t>
+  </si>
+  <si>
+    <t>Terminus-Code, der für das "Pause"-Ziel verwendet werden soll</t>
+  </si>
+  <si>
+    <t>Terminus-Code, der für das "Fahrtende"-Ziel verwendet werden soll</t>
+  </si>
+  <si>
+    <t>nuntius_printer_loadOptions</t>
+  </si>
+  <si>
+    <t>lädt beim Start die Optionen aus der Hofdatei</t>
+  </si>
+  <si>
+    <t>nuntius_printer_hasHofFileOptions</t>
+  </si>
+  <si>
+    <t>Existieren Hofdatei-spezifische Optionen?</t>
   </si>
 </sst>
 </file>
@@ -1525,15 +1555,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1914,369 +1944,393 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>373</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>383</v>
+        <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>385</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>372</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>384</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>134</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>213</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>214</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>226</v>
+        <v>136</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>215</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="A86" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>387</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A86:B86"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2604,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2737,21 +2791,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
         <v>304</v>
@@ -2759,10 +2810,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
         <v>304</v>
@@ -2770,10 +2821,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
         <v>304</v>
@@ -2781,10 +2832,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
         <v>304</v>
@@ -2792,537 +2843,553 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="D18" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="D24" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>389</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>390</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D36" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
-      </c>
-      <c r="D37" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>333</v>
+      </c>
+      <c r="D38" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="D39" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
-      </c>
-      <c r="C40" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
-      </c>
-      <c r="D41" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
-      </c>
-      <c r="D42" t="s">
-        <v>371</v>
+        <v>339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>340</v>
+      </c>
+      <c r="D43" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" t="s">
-        <v>304</v>
+        <v>370</v>
+      </c>
+      <c r="D44" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
-      </c>
-      <c r="D45" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="B46" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
-      </c>
-      <c r="C47" t="s">
-        <v>304</v>
+        <v>345</v>
+      </c>
+      <c r="D47" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B50" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="D50" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
-        <v>349</v>
-      </c>
-      <c r="D51" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="D53" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
-      </c>
-      <c r="D54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
-      </c>
-      <c r="C55" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>353</v>
+      </c>
+      <c r="D56" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
-      </c>
-      <c r="D57" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="C57" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>283</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="D62" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="B62" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>284</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="D63" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B64" s="7"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B65" s="7"/>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B66" s="7"/>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B67" s="7"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B68" s="7"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B69" s="7"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B70" s="7"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B71" s="7"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B72" s="7"/>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B73" s="7"/>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B74" s="7"/>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B75" s="7"/>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B76" s="7"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>298</v>
-      </c>
-      <c r="B77" t="s">
-        <v>363</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>299</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B61:B76"/>
-    <mergeCell ref="D61:D76"/>
+    <mergeCell ref="B63:B78"/>
+    <mergeCell ref="D63:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FFC61-7137-48E8-BD99-2B64BBA4E1EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D2834-55C2-410C-83BE-B338F655009A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="421">
   <si>
     <t>Name</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>Anzahl der stornierten Tickets</t>
-  </si>
-  <si>
-    <t>??? (WIP)</t>
   </si>
   <si>
     <t>Die visible-Variablen geben grundsätzlich an, ob etwas angezeigt werden soll (1) oder nicht (0)</t>
@@ -1198,9 +1195,6 @@
     <t>nuntius_printer_acceptNextTrip</t>
   </si>
   <si>
-    <t>Akzeptiert die Bestätigung zum starten einer neuen Fahrt (stellt das Ziel um)</t>
-  </si>
-  <si>
     <t>nuntius_printer_visPleaseWait</t>
   </si>
   <si>
@@ -1262,13 +1256,74 @@
   </si>
   <si>
     <t>Existieren Hofdatei-spezifische Optionen?</t>
+  </si>
+  <si>
+    <t>nuntius_printer_colorScheme</t>
+  </si>
+  <si>
+    <t>Das aktuelle Fabrschema:
+1 = Hell
+2 = Dunkel</t>
+  </si>
+  <si>
+    <t>nuntius_printer_currentDisplayTextureFolder</t>
+  </si>
+  <si>
+    <t>Der aktuelle Ordner, aus dem die Bildschirmtexturen gezogen werden sollen.</t>
+  </si>
+  <si>
+    <t>nuntius_daueranimationX</t>
+  </si>
+  <si>
+    <t>nuntius_daueranimationY</t>
+  </si>
+  <si>
+    <t>nuntius_daueranimationZ</t>
+  </si>
+  <si>
+    <t>X-Koordinate des Druckers für die Daueranimation</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>nuntius_printer_TerminusIndexBeforeBreak</t>
+  </si>
+  <si>
+    <t>nuntius_printer_pleaseWaitTimer</t>
+  </si>
+  <si>
+    <t>nuntius_printer_lineStr</t>
+  </si>
+  <si>
+    <t>Aktueller Linienstring (nur im Fahrplanmodus)</t>
+  </si>
+  <si>
+    <t>Gibt an, ob "Bitte Abfahren" angezeigt werden soll.
+Wird auf 1 gesetzt, sobald der Schwellwert der Verfrühung (1 Min.) überschritten wird.
+Ist die Verfrühung abgebaut, wird dann die Info angezeigt und die Variable wieder auf 0 gesetzt.</t>
+  </si>
+  <si>
+    <t>Merkt sich den Index des ursprünglich geschilderten Zieles vor dem aktivieren der Pause, sodass nach dem Beenden der Pause das Ziel wieder zurückgestellt werden kann.</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsAnnouncements</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsPleaseWait</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiConfirmNextTrip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,6 +1344,14 @@
       <color rgb="FF953800"/>
       <name val="JetBrains Mono SemiBold"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1311,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1326,11 +1389,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,782 +1627,837 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" ht="297" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" ht="297" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>157</v>
+        <v>95</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>162</v>
+        <v>100</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>166</v>
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>169</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>172</v>
+        <v>109</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>376</v>
+        <v>110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>377</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>402</v>
+        <v>111</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>403</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>399</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="B87" s="10"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="10"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>372</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>383</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>384</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="B109" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>214</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>215</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>216</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>218</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>230</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>234</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>219</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>220</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>221</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>223</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>387</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>388</v>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2344,8 +2471,8 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2643,11 +2770,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2658,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2681,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2710,157 +2837,157 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" t="s">
         <v>379</v>
       </c>
-      <c r="B14" t="s">
-        <v>380</v>
-      </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,18 +2995,18 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" t="s">
         <v>315</v>
-      </c>
-      <c r="D18" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2887,7 +3014,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2895,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2903,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,82 +3038,82 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" t="s">
         <v>322</v>
-      </c>
-      <c r="D24" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>381</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3007,7 +3134,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>330</v>
@@ -3015,7 +3142,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
         <v>331</v>
@@ -3028,16 +3155,19 @@
       <c r="B37" t="s">
         <v>332</v>
       </c>
+      <c r="D37" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>261</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3045,9 +3175,6 @@
         <v>262</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
-      </c>
-      <c r="D39" t="s">
         <v>336</v>
       </c>
     </row>
@@ -3066,6 +3193,9 @@
       <c r="B41" t="s">
         <v>338</v>
       </c>
+      <c r="C41" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -3074,30 +3204,27 @@
       <c r="B42" t="s">
         <v>339</v>
       </c>
-      <c r="C42" t="s">
-        <v>304</v>
+      <c r="D42" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="D43" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3113,26 +3240,26 @@
         <v>268</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="D46" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>345</v>
-      </c>
-      <c r="D47" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>366</v>
+        <v>269</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3140,50 +3267,50 @@
         <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
+        <v>346</v>
+      </c>
+      <c r="D49" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s">
-        <v>347</v>
-      </c>
-      <c r="D50" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
         <v>348</v>
       </c>
+      <c r="D52" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
-      </c>
-      <c r="D53" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s">
         <v>351</v>
@@ -3196,16 +3323,19 @@
       <c r="B55" t="s">
         <v>352</v>
       </c>
+      <c r="D55" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>353</v>
-      </c>
-      <c r="D56" t="s">
         <v>354</v>
+      </c>
+      <c r="C56" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3215,9 +3345,6 @@
       <c r="B57" t="s">
         <v>355</v>
       </c>
-      <c r="C57" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -3226,23 +3353,23 @@
       <c r="B58" t="s">
         <v>356</v>
       </c>
+      <c r="D58" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>279</v>
       </c>
       <c r="B59" t="s">
-        <v>357</v>
-      </c>
-      <c r="D59" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>280</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3250,20 +3377,19 @@
       <c r="A62" t="s">
         <v>281</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7" t="s">
         <v>360</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>362</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -3365,31 +3491,49 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="B78" s="7"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>298</v>
-      </c>
-      <c r="B79" t="s">
-        <v>363</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B80" t="s">
-        <v>364</v>
+        <v>420</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B63:B78"/>
-    <mergeCell ref="D63:D78"/>
+    <mergeCell ref="B62:B80"/>
+    <mergeCell ref="D62:D80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D2834-55C2-410C-83BE-B338F655009A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1D043-2175-4308-A026-64679B4FF7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="420">
   <si>
     <t>Name</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>nuntius_printer_input2</t>
-  </si>
-  <si>
-    <t>[Dient zu debug-Zwecken] - Testbutton neben dem Drucker zum vollständigen Zurücksetzen/Neustarten</t>
   </si>
   <si>
     <t>Wenn die neben dem Drucker liegende (inaktive) Fahrerkarten angeklickt (aufgelegt) wird</t>
@@ -1392,9 +1389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1403,6 +1397,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,49 +1638,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1691,762 +1688,762 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="10"/>
+      <c r="A20" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="10"/>
+      <c r="A27" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" ht="297" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>413</v>
+      <c r="A58" s="8" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="10"/>
+      <c r="A63" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B87" s="10"/>
+      <c r="A87" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B93" s="10"/>
+      <c r="A93" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2469,10 +2466,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2488,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -2504,7 +2501,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2512,7 +2509,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -2520,7 +2517,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -2528,7 +2525,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -2536,7 +2533,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -2544,7 +2541,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -2552,7 +2549,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -2560,7 +2557,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -2568,7 +2565,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -2576,56 +2576,53 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2633,15 +2630,15 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -2649,7 +2646,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
@@ -2657,23 +2654,23 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -2681,31 +2678,34 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>70</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
@@ -2735,10 +2735,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>73</v>
@@ -2746,7 +2743,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -2754,7 +2751,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
@@ -2762,19 +2759,11 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
         <v>373</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2787,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2808,7 +2797,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2837,157 +2826,157 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" t="s">
         <v>398</v>
-      </c>
-      <c r="B11" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" t="s">
         <v>378</v>
       </c>
-      <c r="B14" t="s">
-        <v>379</v>
-      </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,18 +2984,18 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" t="s">
         <v>314</v>
-      </c>
-      <c r="D18" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3014,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3022,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3030,7 +3019,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3038,477 +3027,477 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" t="s">
         <v>321</v>
-      </c>
-      <c r="D24" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" t="s">
         <v>332</v>
-      </c>
-      <c r="D37" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" t="s">
         <v>334</v>
-      </c>
-      <c r="D38" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" t="s">
         <v>339</v>
-      </c>
-      <c r="D42" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" t="s">
         <v>368</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>369</v>
-      </c>
-      <c r="D43" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" t="s">
         <v>344</v>
-      </c>
-      <c r="D46" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" t="s">
         <v>366</v>
-      </c>
-      <c r="B50" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" t="s">
         <v>348</v>
-      </c>
-      <c r="D52" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" t="s">
         <v>352</v>
-      </c>
-      <c r="D55" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" t="s">
         <v>356</v>
-      </c>
-      <c r="D58" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>281</v>
-      </c>
-      <c r="B62" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>282</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="D63" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="D64" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>284</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="D65" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>285</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="D66" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>286</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="D67" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>287</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="D68" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>288</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="D69" s="7"/>
+        <v>287</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>289</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="D70" s="7"/>
+        <v>288</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="D71" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>291</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="D72" s="7"/>
+        <v>290</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>292</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="D73" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>293</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="D74" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>294</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="D75" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>295</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="D76" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>296</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="D77" s="7"/>
+        <v>295</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>418</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="D78" s="7"/>
+        <v>417</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>419</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="D79" s="7"/>
+        <v>418</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>420</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="D80" s="7"/>
+        <v>419</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
@@ -3516,18 +3505,18 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1D043-2175-4308-A026-64679B4FF7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E9C80A-1AB3-4C44-AF35-978CA6A37993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="421">
   <si>
     <t>Name</t>
   </si>
@@ -1314,6 +1314,9 @@
   </si>
   <si>
     <t>nuntius_printer_showUiConfirmNextTrip</t>
+  </si>
+  <si>
+    <t>nuntius_printer_startBreak</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1401,6 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2774,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3042,487 +3046,492 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" t="s">
-        <v>323</v>
+      <c r="A25" s="11" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>387</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
-      </c>
-      <c r="D37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="D39" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
-      </c>
-      <c r="C41" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="C42" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="D43" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>368</v>
+      </c>
+      <c r="D44" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
-      </c>
-      <c r="D46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>364</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>343</v>
+      </c>
+      <c r="D47" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>345</v>
+      </c>
+      <c r="D50" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
-      </c>
-      <c r="D52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="D53" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s">
-        <v>351</v>
-      </c>
-      <c r="D55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s">
-        <v>353</v>
-      </c>
-      <c r="C56" t="s">
-        <v>302</v>
+        <v>351</v>
+      </c>
+      <c r="D56" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="C57" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
-      </c>
-      <c r="D58" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>278</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>279</v>
-      </c>
-      <c r="B61" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>280</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>360</v>
+        <v>279</v>
+      </c>
+      <c r="B62" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>281</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="D63" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B64" s="10"/>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B65" s="10"/>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B66" s="10"/>
       <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="10"/>
       <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B68" s="10"/>
       <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B69" s="10"/>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B70" s="10"/>
       <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B71" s="10"/>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B72" s="10"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="10"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B74" s="10"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B75" s="10"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B76" s="10"/>
       <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B77" s="10"/>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>417</v>
+        <v>295</v>
       </c>
       <c r="B78" s="10"/>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B79" s="10"/>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B80" s="10"/>
       <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="A81" t="s">
+        <v>419</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>296</v>
-      </c>
-      <c r="B82" t="s">
-        <v>361</v>
-      </c>
+      <c r="B82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>296</v>
+      </c>
+      <c r="B83" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>297</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>362</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B62:B80"/>
-    <mergeCell ref="D62:D80"/>
+    <mergeCell ref="B63:B81"/>
+    <mergeCell ref="D63:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E9C80A-1AB3-4C44-AF35-978CA6A37993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32412711-EF05-45A4-8F08-0235F772466C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="422">
   <si>
     <t>Name</t>
   </si>
@@ -1317,6 +1317,9 @@
   </si>
   <si>
     <t>nuntius_printer_startBreak</t>
+  </si>
+  <si>
+    <t>Startet die Pausenfunktion (im Wesentlichen Umschilderung auf "Pause")</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1404,7 +1407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,8 +1632,8 @@
   </sheetPr>
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2780,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3046,8 +3048,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>420</v>
+      </c>
+      <c r="B25" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32412711-EF05-45A4-8F08-0235F772466C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07021EAB-6B9F-4EEB-8D56-37E60B114FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="2" r:id="rId1"/>
-    <sheet name="Trigger" sheetId="1" r:id="rId2"/>
-    <sheet name="Macros" sheetId="3" r:id="rId3"/>
+    <sheet name="Stringvariablen" sheetId="5" r:id="rId2"/>
+    <sheet name="Trigger" sheetId="1" r:id="rId3"/>
+    <sheet name="Macros" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="494">
   <si>
     <t>Name</t>
   </si>
@@ -273,21 +274,6 @@
     <t>nuntius_ticketPrintingTimer</t>
   </si>
   <si>
-    <t>nuntius_api_power</t>
-  </si>
-  <si>
-    <t>nuntius_api_doorsOpen</t>
-  </si>
-  <si>
-    <t>nuntius_api_lineNo</t>
-  </si>
-  <si>
-    <t>nuntius_api_lineSuffix</t>
-  </si>
-  <si>
-    <t>nuntius_api_terminusIndex</t>
-  </si>
-  <si>
     <t>nuntius_printer_page</t>
   </si>
   <si>
@@ -423,15 +409,6 @@
     <t>nuntius_printer_visBusstopFooter</t>
   </si>
   <si>
-    <t>IBIS_TerminusIndex</t>
-  </si>
-  <si>
-    <t>IBIS_Linie_Complex</t>
-  </si>
-  <si>
-    <t>IBIS_Linie_Suffix</t>
-  </si>
-  <si>
     <t>Gibt an, ob die Fahrerkarte sich derzeit auf dem Drucker (1) befindet, oder nicht (0).</t>
   </si>
   <si>
@@ -445,21 +422,6 @@
   </si>
   <si>
     <t>Timer für die Ticket-Animation</t>
-  </si>
-  <si>
-    <t>Gibt an, ob der Drucker gerade mit Strom versorgt ist</t>
-  </si>
-  <si>
-    <t>Gibt an, ob gerade mindestens eine Tür geöffnet ist</t>
-  </si>
-  <si>
-    <t>Enthält die aktuelle Liniennummer (nur Hofdateimodus)</t>
-  </si>
-  <si>
-    <t>Enthält den aktuellen Suffix-Code (z.B. 10 für "_E") (nur Hofdatei-Modus)</t>
-  </si>
-  <si>
-    <t>Enthält den Hofdatei-Index des zu schildernden Ziels</t>
   </si>
   <si>
     <t>Aktueller Boot-Status:
@@ -605,96 +567,30 @@
     <t>Fußleiste im Haltestellenmenü</t>
   </si>
   <si>
-    <t>Notwendig für die native Kompatibilität mit der Krüger++-Matrix</t>
-  </si>
-  <si>
-    <t>Index des aktuellen Ziels</t>
-  </si>
-  <si>
-    <t>Vollständiger Linie/Kurs-String (z.B. 07610 für "76E")</t>
-  </si>
-  <si>
-    <t>Liniensuffix (z.B. 10 für ("_E")</t>
-  </si>
-  <si>
     <t>Fahrerkarte und Ticketdruck</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
     <t>Drucker-Interface/Benutzeroberflächte</t>
   </si>
   <si>
     <t>Visible-Werte</t>
   </si>
   <si>
-    <t>Sonstige</t>
-  </si>
-  <si>
-    <t>UI-Strings</t>
-  </si>
-  <si>
-    <t>API (Strings)</t>
-  </si>
-  <si>
-    <t>nuntius_api_timeStr</t>
-  </si>
-  <si>
-    <t>nuntius_api_busstop0</t>
-  </si>
-  <si>
     <t>nuntius_api_lineStr</t>
   </si>
   <si>
     <t>nuntius_api_terminusStr</t>
   </si>
   <si>
-    <t>Aktuelle Uhrzeit als String formatiert (z.B. "16:24")</t>
-  </si>
-  <si>
-    <t>Unmittelbar nächste Haltestelle</t>
-  </si>
-  <si>
-    <t>Folgehaltestellen</t>
-  </si>
-  <si>
-    <t>nuntius_api_busstop1 … 7</t>
-  </si>
-  <si>
-    <t>Aktuelle Liniennummer als String</t>
-  </si>
-  <si>
-    <t>Aktuelle Ziel-Bezeichnung</t>
-  </si>
-  <si>
     <t>nuntius_printer_ui_texture</t>
   </si>
   <si>
-    <t>nuntius_printer_ui_time</t>
-  </si>
-  <si>
     <t>nuntius_printer_ui_delay</t>
   </si>
   <si>
     <t>nuntius_printer_ui_delayColor</t>
   </si>
   <si>
-    <t>nuntius_printer_ui_line</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_terminus</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_input0</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_input1</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_input2</t>
-  </si>
-  <si>
     <t>nuntius_printer_ui_terminusPreview</t>
   </si>
   <si>
@@ -704,45 +600,6 @@
     <t>nuntius_printer_ui_currentTicketPrice</t>
   </si>
   <si>
-    <t>Texturpfad zur aktuellen Bildschrimtextur</t>
-  </si>
-  <si>
-    <t>Uhrzeit/Datum</t>
-  </si>
-  <si>
-    <t>Texturpfad zur 1px-Farbtextur für die Verspätung</t>
-  </si>
-  <si>
-    <t>Ziel</t>
-  </si>
-  <si>
-    <t>Linie/Kurs, Route/Zielnr.</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_busstop0 … 4</t>
-  </si>
-  <si>
-    <t>Abfahrtszeiten an den Folgehaltestellen</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_busstopTime0 … 4</t>
-  </si>
-  <si>
-    <t>Ticketname und -Preis</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_ticket0 .. 7</t>
-  </si>
-  <si>
-    <t>Sonderziel-Vorschau</t>
-  </si>
-  <si>
-    <t>Name des aktuellen Tickets</t>
-  </si>
-  <si>
-    <t>Preis des aktuellen Tickets</t>
-  </si>
-  <si>
     <t>nuntius_printer_init</t>
   </si>
   <si>
@@ -776,9 +633,6 @@
     <t>nuntius_printer_autoOpenDeparturePage</t>
   </si>
   <si>
-    <t>nuntius_printer_refreshTime</t>
-  </si>
-  <si>
     <t>nuntius_printer_refreshDelay</t>
   </si>
   <si>
@@ -966,9 +820,6 @@
   </si>
   <si>
     <t>Öffnet ggf. automatisch die Abfahrtsanzeige</t>
-  </si>
-  <si>
-    <t>Aktualisiert die Uhrzeit/Datumsanzeige</t>
   </si>
   <si>
     <t>Aktualisiert die Verspätungsanzeige</t>
@@ -1189,9 +1040,6 @@
     <t>Öffnet ggf. automatisch die Bestätigung zum Start einer neuen Fahrt</t>
   </si>
   <si>
-    <t>nuntius_printer_acceptNextTrip</t>
-  </si>
-  <si>
     <t>nuntius_printer_visPleaseWait</t>
   </si>
   <si>
@@ -1204,21 +1052,12 @@
     <t>Nächste Fahrt bestätigen</t>
   </si>
   <si>
-    <t>nuntius_printer_ui_confirmNextTripText</t>
-  </si>
-  <si>
-    <t>Textfeld für die Anzeige "Nächste Fahrt bestätigen (Linie, Ziel, An/Ab)</t>
-  </si>
-  <si>
     <t>nuntius_printer_denyNextTrip</t>
   </si>
   <si>
     <t>nuntius_printer_acceptNextTripWithBreak</t>
   </si>
   <si>
-    <t>Bestätigt die nächste Fahrt</t>
-  </si>
-  <si>
     <t>Lehnt die nächste Fahrt ab und schaltet den Routenmodus auf 0</t>
   </si>
   <si>
@@ -1258,17 +1097,9 @@
     <t>nuntius_printer_colorScheme</t>
   </si>
   <si>
-    <t>Das aktuelle Fabrschema:
-1 = Hell
-2 = Dunkel</t>
-  </si>
-  <si>
     <t>nuntius_printer_currentDisplayTextureFolder</t>
   </si>
   <si>
-    <t>Der aktuelle Ordner, aus dem die Bildschirmtexturen gezogen werden sollen.</t>
-  </si>
-  <si>
     <t>nuntius_daueranimationX</t>
   </si>
   <si>
@@ -1294,9 +1125,6 @@
   </si>
   <si>
     <t>nuntius_printer_lineStr</t>
-  </si>
-  <si>
-    <t>Aktueller Linienstring (nur im Fahrplanmodus)</t>
   </si>
   <si>
     <t>Gibt an, ob "Bitte Abfahren" angezeigt werden soll.
@@ -1320,6 +1148,425 @@
   </si>
   <si>
     <t>Startet die Pausenfunktion (im Wesentlichen Umschilderung auf "Pause")</t>
+  </si>
+  <si>
+    <t>nuntius_printer_executeDaueranimation</t>
+  </si>
+  <si>
+    <t>nuntius_printer_initFonts</t>
+  </si>
+  <si>
+    <t>nuntius_printer_updateScriptTextureFrame</t>
+  </si>
+  <si>
+    <t>nuntius_printer_renderScriptTexture</t>
+  </si>
+  <si>
+    <t>nuntius_printer_renderScriptTextureFrame</t>
+  </si>
+  <si>
+    <t>nuntius_printer_updateColorScheme</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getDateString</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getTimeString</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiElementsCompanyLogo</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiMenuNav</t>
+  </si>
+  <si>
+    <t>nuntius_printer_showUiMenuAppearance</t>
+  </si>
+  <si>
+    <t>nuntius_printer_scheduleScriptTextForUpdate</t>
+  </si>
+  <si>
+    <t>nuntius_printer_shortenString</t>
+  </si>
+  <si>
+    <t>nuntius_printer_shortenString_checkPresets</t>
+  </si>
+  <si>
+    <t>nuntius_printer_shortenString_loop</t>
+  </si>
+  <si>
+    <t>nuntius_printer_shortenString_removeOneChar</t>
+  </si>
+  <si>
+    <t>Führt die Daueranimation zur Verschiebung des Druckers aus</t>
+  </si>
+  <si>
+    <t>Initialisiert die Fonts für die Skripttextur</t>
+  </si>
+  <si>
+    <t>Aktualisiert den Teil der Scripttextur (Uhrzeit und Verspätung) der standardmäßig in jedem Frame aktualisiert wird</t>
+  </si>
+  <si>
+    <t>Rendert die gesamte Scripttextur neu</t>
+  </si>
+  <si>
+    <t>Rendert den "Frame-Teil" der Scripttextur neu</t>
+  </si>
+  <si>
+    <t>Aktualisiert das Farbschema (Hell/Dunkel/Auto)</t>
+  </si>
+  <si>
+    <t>Gibt das aktuelle Datum als String zurück</t>
+  </si>
+  <si>
+    <t>Gibt die aktuelle Uhrzeit als String zurück</t>
+  </si>
+  <si>
+    <t>Weißt dem Skript an, die Skripttextur im nächsten Frame (bzw. den nächsten zwei Frames) vollständig neu zu zeichnen</t>
+  </si>
+  <si>
+    <t>Kürzt den gegebenen String auf die angegebene Länge in Pixeln (übergeben wird der String im Stringstack)</t>
+  </si>
+  <si>
+    <t>Die maximale Länge in Pixeln</t>
+  </si>
+  <si>
+    <t>Der Font-Index</t>
+  </si>
+  <si>
+    <t>Überprüft beim kürzen des Strings, ob gewisse Vorlagen (z.B. "Straße" -&gt; "Str.") erkannt wurden</t>
+  </si>
+  <si>
+    <t>Pseudoloop zum String kürzen</t>
+  </si>
+  <si>
+    <t>Entfernt, sofern notwendig ein Zeichen vom String</t>
+  </si>
+  <si>
+    <t>Allgemeines</t>
+  </si>
+  <si>
+    <t>Skripttexturen</t>
+  </si>
+  <si>
+    <t>Boot</t>
+  </si>
+  <si>
+    <t>Handler und Frame-Makros</t>
+  </si>
+  <si>
+    <t>Allgemeines Betriebssystem</t>
+  </si>
+  <si>
+    <t>Benutzeroberfläche</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Sonstiges/Nützliches</t>
+  </si>
+  <si>
+    <t>nuntius_printer_announcementsOnOff</t>
+  </si>
+  <si>
+    <t>nuntius_printer_menuAppearanceThemeAuto</t>
+  </si>
+  <si>
+    <t>nuntius_printer_menuAppearanceThemeLight</t>
+  </si>
+  <si>
+    <t>nuntius_printer_menuAppearanceThemeDark</t>
+  </si>
+  <si>
+    <t>nuntius_printer_menuAppearanceBrightnessIncrease</t>
+  </si>
+  <si>
+    <t>nuntius_printer_menuAppearanceBrightnessDecrease</t>
+  </si>
+  <si>
+    <t>nuntius_printer_menuItem0…3</t>
+  </si>
+  <si>
+    <t>Schaltet die Haltestellenansagen ein oder aus</t>
+  </si>
+  <si>
+    <t>Wählt im Hauptmenü den Eintrag 0-3 aus</t>
+  </si>
+  <si>
+    <t>Setzt im Hauptmenü das Farbschema auf "Auto"</t>
+  </si>
+  <si>
+    <t>Setzt im Hauptmenü das Farbschema auf "Hell"</t>
+  </si>
+  <si>
+    <t>Setzt im Hauptmenü das Farbschema auf "Dunkel"</t>
+  </si>
+  <si>
+    <t>Erhöht im Hauptmenü die Bildschrimhelligkeit</t>
+  </si>
+  <si>
+    <t>Verringert im Hauptmenü die Bildschrimhelligkeit</t>
+  </si>
+  <si>
+    <t>nuntius_daueranimationRotation</t>
+  </si>
+  <si>
+    <t>Rotation um die Z-Achse</t>
+  </si>
+  <si>
+    <t>nuntius_printer_colorSchemeSetting</t>
+  </si>
+  <si>
+    <t>Das aktuell tatsächlich angezeigte Fabrschema:
+1 = Hell
+2 = Dunkel</t>
+  </si>
+  <si>
+    <t>Die aktuelle Fabrschema-Einstellung:
+0 = Auto
+1 = Hell
+2 = Dunkel</t>
+  </si>
+  <si>
+    <t>nuntius_printer_screenIsOn</t>
+  </si>
+  <si>
+    <t>Ist der Bilschrim derzeit aktiv?</t>
+  </si>
+  <si>
+    <t>nuntius_printer_inputsCensored</t>
+  </si>
+  <si>
+    <t>Gibt an, ob die Eingabefelder zensiert sind, basierend auf einer Binary-Flag:
+xx0: erstes Feld
+x0x: zweites Feld
+0xx: drittes Feld</t>
+  </si>
+  <si>
+    <t>nuntius_printer_displayBrightnessPercent</t>
+  </si>
+  <si>
+    <t>nuntius_printer_displayBrightnessFloat</t>
+  </si>
+  <si>
+    <t>Bildschrimhelligkeit in Prozenz (0-100%)</t>
+  </si>
+  <si>
+    <t>Invertierte Bildschrimhelligkeit (1-0) für den Alphascale in der model.cfg</t>
+  </si>
+  <si>
+    <t>nuntius_printer_updateScriptTexture</t>
+  </si>
+  <si>
+    <t>nuntius_printer_scriptTextureCurrentIndex</t>
+  </si>
+  <si>
+    <t>nuntius_printer_scriptTextureState</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visCompanyLogo</t>
+  </si>
+  <si>
+    <t>Repaintbares Firmenlogo auf dem Willkommens- und Bausenbildschrim</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visMenuNav</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visMenuAppearance</t>
+  </si>
+  <si>
+    <t>Navigations des Hauptmenüs</t>
+  </si>
+  <si>
+    <t>Elemente des Hauptmenü-Bereiches "Display und Darstellung"</t>
+  </si>
+  <si>
+    <t>nuntius_printer_font_28pxRegular</t>
+  </si>
+  <si>
+    <t>nuntius_printer_font_38pxRegular</t>
+  </si>
+  <si>
+    <t>nuntius_printer_font_48pxMedium</t>
+  </si>
+  <si>
+    <t>nuntius_printer_font_38pxMedium</t>
+  </si>
+  <si>
+    <t>nuntius_printer_font_72pxRegular</t>
+  </si>
+  <si>
+    <t>Font-Indezies</t>
+  </si>
+  <si>
+    <t>Scripttexturen</t>
+  </si>
+  <si>
+    <t>Anweisung, die Scripttextur vollständig zu aktualisieren:
+2 = Aktualisierung ausstehend
+1 = 1x Scripttextur im aktuellen Frame aktualisiert, andere Scripttextur im nächsten Frame ausstehend
+0 = beide Scirpttexturen aktuell, keine ausstehend</t>
+  </si>
+  <si>
+    <t>Index der Scripttextur, welche aktuell beschrieben wird</t>
+  </si>
+  <si>
+    <t>Aktueller Scripttextur-Status für den matl_change-Befehl (1 oder 2, je nach dem, welche Scripttextur gerade aktiv ist), wechselt in jedem Frame zwischen beiden Werten</t>
+  </si>
+  <si>
+    <t>Fonts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hinweis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Damit es nicht zu Flacken und komischen Darstellungen kommt, verfügt der Nuntius-Drucker über zwei gleichberechtigte und analoge Scripttexturen, welche in framweise immer abwechselnd beschrieben und entpsrechend versetzt gerendert werden.</t>
+    </r>
+  </si>
+  <si>
+    <t>nuntius_printer_tmpStr0</t>
+  </si>
+  <si>
+    <t>nuntius_printer_tmpStr1</t>
+  </si>
+  <si>
+    <t>nuntius_printer_tmpStr2</t>
+  </si>
+  <si>
+    <t>nuntius_printer_tmpStr3</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_textColorTexture</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_line1</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_line2</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_terminus1</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_terminus2</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_busstop_end</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_busstopTime_end</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_progressText</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_input0…2</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_ticketPrice0…7</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_ticketName0…7</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_confirmNextTripText1...5</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_busstopTime0…4</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_busstop0…4</t>
+  </si>
+  <si>
+    <t>nuntius_api_busstop0…7</t>
+  </si>
+  <si>
+    <t>Temporäre Strings (weil es keine Stringregister gibt)</t>
+  </si>
+  <si>
+    <t>Aktueller Ordnername, aus dem die Displaytexturen gezogen werden sollen (für Light- und Dark Mode)</t>
+  </si>
+  <si>
+    <t>Texturname der aktuellen Bildschrimtextur</t>
+  </si>
+  <si>
+    <t>Texturname der aktuellen Hintergrunddtextur für die Scripttextur (bestimmt die Textfarbe)</t>
+  </si>
+  <si>
+    <t>Aktuelle Verspätung</t>
+  </si>
+  <si>
+    <t>Texturpfad zur Farbtextur für die Verspätung</t>
+  </si>
+  <si>
+    <t>Erste Zeile des Linienfeldes (z.B: 76/0)</t>
+  </si>
+  <si>
+    <t>Zweite Zeile des Linienfeldes (z.B: 01/36)</t>
+  </si>
+  <si>
+    <t>Erste Zeile des Terminusfeldes (z.B: Einsteindorf)</t>
+  </si>
+  <si>
+    <t>Zweite Zeile des Terminusfeldes (z.B: Krankenhaus)</t>
+  </si>
+  <si>
+    <t>Haltestellennamen der Haltestellenfolge</t>
+  </si>
+  <si>
+    <t>Haltestellenname der Endhaltestelle</t>
+  </si>
+  <si>
+    <t>Fahrtzeiten der Haltestellenfolge</t>
+  </si>
+  <si>
+    <t>Ankunftszeit an der Endhaltestelle</t>
+  </si>
+  <si>
+    <t>Ticketnamen</t>
+  </si>
+  <si>
+    <t>Ticketpreise als String</t>
+  </si>
+  <si>
+    <t>(unzensierte) Texte der Eingabefelder</t>
+  </si>
+  <si>
+    <t>Zielvorschau (keine Funktion bisher)</t>
+  </si>
+  <si>
+    <t>Name des aktuell gewählten Tickets</t>
+  </si>
+  <si>
+    <t>Preis des aktuell gewählten Tickets</t>
+  </si>
+  <si>
+    <t>ohne Funktion</t>
+  </si>
+  <si>
+    <t>Zeilen 1-5 für die "Nächste Fahrt bestätigen"-Ansicht</t>
+  </si>
+  <si>
+    <t>Aktueller Linienstring (z.B. 76E) (nur im Fahrplanmodus)</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1389,9 +1636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1401,11 +1645,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,10 +1886,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1644,823 +1900,697 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="297" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>202</v>
+        <v>423</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" ht="297" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>147</v>
+        <v>94</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>355</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>154</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>157</v>
+        <v>103</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>416</v>
+        <v>109</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>345</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>166</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>167</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>111</v>
+      <c r="A53" t="s">
+        <v>427</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>168</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>112</v>
+      <c r="A54" t="s">
+        <v>428</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>412</v>
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>395</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>434</v>
+      </c>
       <c r="B64" s="3" t="s">
-        <v>171</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>383</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>436</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B87" s="9"/>
+      <c r="A87" t="s">
+        <v>437</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="A88"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="A89" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" s="11"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>192</v>
+      <c r="A90" t="s">
+        <v>440</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="A91" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>442</v>
+      </c>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B93" s="9"/>
+      <c r="A93" t="s">
+        <v>443</v>
+      </c>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>414</v>
-      </c>
+      <c r="A94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B94" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A87:B87"/>
+  <mergeCells count="6">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A89:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2468,14 +2598,254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E136590C-EA4F-4E21-9125-68A5EEB7EB45}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43" style="3" customWidth="1"/>
+    <col min="2" max="2" width="81.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2765,11 +3135,67 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>404</v>
+      </c>
+      <c r="C34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>405</v>
+      </c>
+      <c r="C36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2778,12 +3204,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2803,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2831,712 +3257,891 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>302</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>306</v>
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>307</v>
+      <c r="A9" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" t="s">
-        <v>378</v>
-      </c>
-      <c r="C14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>392</v>
-      </c>
-      <c r="B15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" t="s">
         <v>253</v>
       </c>
-      <c r="B28" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="C29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>386</v>
-      </c>
-      <c r="B31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B32" t="s">
-        <v>390</v>
+        <v>337</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>262</v>
+      </c>
+      <c r="C35" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>263</v>
+      </c>
+      <c r="D36" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>331</v>
-      </c>
-      <c r="D38" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>333</v>
-      </c>
-      <c r="D39" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
-      </c>
-      <c r="C42" t="s">
-        <v>302</v>
+        <v>270</v>
+      </c>
+      <c r="D42" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
-      </c>
-      <c r="D43" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
-        <v>368</v>
-      </c>
-      <c r="D44" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
-      </c>
-      <c r="D47" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
-      </c>
-      <c r="D50" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>365</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
-      </c>
-      <c r="D53" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
+        <v>281</v>
+      </c>
+      <c r="D55" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="D56" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>353</v>
-      </c>
-      <c r="C57" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
-      </c>
-      <c r="D59" t="s">
-        <v>356</v>
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
+        <v>288</v>
+      </c>
+      <c r="D60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" t="s">
+        <v>318</v>
+      </c>
+      <c r="D61" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>280</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>360</v>
+        <v>217</v>
+      </c>
+      <c r="B63" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>281</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="D64" s="10"/>
+        <v>218</v>
+      </c>
+      <c r="B64" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="D65" s="10"/>
+        <v>314</v>
+      </c>
+      <c r="B65" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="D66" s="10"/>
+        <v>219</v>
+      </c>
+      <c r="B66" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>284</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="D67" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>285</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="D68" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="B68" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>286</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="D69" s="10"/>
+        <v>221</v>
+      </c>
+      <c r="B69" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>287</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="D70" s="10"/>
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>288</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="D71" s="10"/>
+        <v>222</v>
+      </c>
+      <c r="B71" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>289</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="D72" s="10"/>
+        <v>224</v>
+      </c>
+      <c r="B72" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>290</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="D73" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>291</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="D74" s="10"/>
+        <v>226</v>
+      </c>
+      <c r="B74" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>292</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="D75" s="10"/>
+        <v>227</v>
+      </c>
+      <c r="B75" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="D76" s="10"/>
+        <v>228</v>
+      </c>
+      <c r="B76" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>294</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>295</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="D78" s="10"/>
+        <v>229</v>
+      </c>
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>417</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="A79" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>418</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="D80" s="10"/>
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>419</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="D81" s="10"/>
+        <v>373</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="D82" s="10" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>296</v>
-      </c>
-      <c r="B83" t="s">
-        <v>361</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>297</v>
-      </c>
-      <c r="B84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>245</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>362</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="5"/>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>377</v>
+      </c>
+      <c r="B110" t="s">
+        <v>390</v>
+      </c>
+      <c r="D110" t="s">
+        <v>391</v>
+      </c>
+      <c r="E110" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>378</v>
+      </c>
+      <c r="B111" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>380</v>
+      </c>
+      <c r="B113" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B63:B81"/>
-    <mergeCell ref="D63:D81"/>
+    <mergeCell ref="D82:D100"/>
+    <mergeCell ref="B81:B100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07021EAB-6B9F-4EEB-8D56-37E60B114FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23B2BF-F863-4407-8A09-42FD5FCEB891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="2" r:id="rId1"/>
     <sheet name="Stringvariablen" sheetId="5" r:id="rId2"/>
     <sheet name="Trigger" sheetId="1" r:id="rId3"/>
     <sheet name="Macros" sheetId="3" r:id="rId4"/>
+    <sheet name="Events" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="538">
   <si>
     <t>Name</t>
   </si>
@@ -576,12 +577,6 @@
     <t>Visible-Werte</t>
   </si>
   <si>
-    <t>nuntius_api_lineStr</t>
-  </si>
-  <si>
-    <t>nuntius_api_terminusStr</t>
-  </si>
-  <si>
     <t>nuntius_printer_ui_texture</t>
   </si>
   <si>
@@ -915,9 +910,6 @@
     <t>Aktualisiert die Uhrzeiten der Haltestellenliste</t>
   </si>
   <si>
-    <t>Gibt den Namen der Haltestelle an Position x zurück</t>
-  </si>
-  <si>
     <t>Haltestellenindex (0 = unmittelbar nächste, 4 = Maximalwert)</t>
   </si>
   <si>
@@ -975,9 +967,6 @@
     <t>Spielt den Fehlersound ab, sofern Tastensounds aktiviert sind</t>
   </si>
   <si>
-    <t>Gibt den Namen der letzten Haltestelle zurück</t>
-  </si>
-  <si>
     <t>nuntius_printer_getLastBusstopListEntry</t>
   </si>
   <si>
@@ -1012,26 +1001,6 @@
   </si>
   <si>
     <t>Animationsvariable für den Fortschrittsbalken</t>
-  </si>
-  <si>
-    <t>ID der aktuell geöffneten Seite/Dialog:
-0 = Willkommensbilschirm
-1 = Login
-2 = Startseite/Hauptbildschrim
-3 = Haltestellenansicht
-4 = Routenauswahl
-5 = Zielcode-Auswahl
-6 = Ansagen
-7 = Pause
-71 = Pause (von der Haltestellenansicht aus gestartet)
-8 = Funk
-9 = Fahrerwechsel
-10 = Schichtende
-11 = "Bitte abfahren!"
-12 = Nächste Fahrt bestätigen
-91 = Logout zum Fahrerwechsel
-101 = Logout nach  dem Schichtende
-20 = Hauptmenü</t>
   </si>
   <si>
     <t>nuntius_printer_autoOpenConfirmNextTripPage</t>
@@ -1449,12 +1418,6 @@
     <t>nuntius_printer_tmpStr1</t>
   </si>
   <si>
-    <t>nuntius_printer_tmpStr2</t>
-  </si>
-  <si>
-    <t>nuntius_printer_tmpStr3</t>
-  </si>
-  <si>
     <t>nuntius_printer_ui_textColorTexture</t>
   </si>
   <si>
@@ -1497,9 +1460,6 @@
     <t>nuntius_printer_ui_busstop0…4</t>
   </si>
   <si>
-    <t>nuntius_api_busstop0…7</t>
-  </si>
-  <si>
     <t>Temporäre Strings (weil es keine Stringregister gibt)</t>
   </si>
   <si>
@@ -1567,6 +1527,179 @@
   </si>
   <si>
     <t>Aktueller Linienstring (z.B. 76E) (nur im Fahrplanmodus)</t>
+  </si>
+  <si>
+    <t>ID der aktuell geöffneten Seite/Dialog:
+0 = Willkommensbilschirm
+1 = Login
+2 = Startseite/Hauptbildschrim
+3 = Haltestellenansicht
+4 = Routenauswahl
+5 = Zielcode-Auswahl
+6 = Ansagen
+7 = Pause
+71 = Login nach der Pause
+8 = Funk
+9 = Fahrerwechsel
+10 = Schichtende
+11 = "Bitte abfahren!"
+12 = Nächste Fahrt bestätigen
+91 = Logout zum Fahrerwechsel
+101 = Logout nach  dem Schichtende
+20 = Hauptmenü</t>
+  </si>
+  <si>
+    <t>Schnittstelle</t>
+  </si>
+  <si>
+    <t>nuntius_input_power</t>
+  </si>
+  <si>
+    <t>nuntius_input_doorsOpen</t>
+  </si>
+  <si>
+    <t>nuntius_output_routeMode</t>
+  </si>
+  <si>
+    <t>nuntius_output_pauseActive</t>
+  </si>
+  <si>
+    <t>nuntius_output_lineNumber</t>
+  </si>
+  <si>
+    <t>nuntius_output_lineSuffix</t>
+  </si>
+  <si>
+    <t>nuntius_output_terminusIndex</t>
+  </si>
+  <si>
+    <t>nuntius_event_queue_currentBusstopChanged</t>
+  </si>
+  <si>
+    <t>nuntius_event_queue_routeModeChanged</t>
+  </si>
+  <si>
+    <t>nuntius_event_queue_terminusChanged</t>
+  </si>
+  <si>
+    <t>nuntius_event_queue_lineChanged</t>
+  </si>
+  <si>
+    <t>nuntius_event_queue_pauseChanged</t>
+  </si>
+  <si>
+    <t>Eingangsspeicher für den Stromanschluss</t>
+  </si>
+  <si>
+    <t>Eingangsspeicher, ob die Türen offen sind</t>
+  </si>
+  <si>
+    <t>Aktueller Routemodus (0 = keiner, 1 = Hofdatei, 2 = Fahrplan)</t>
+  </si>
+  <si>
+    <t>Ist die Pausenfunktion derzeit aktiv?</t>
+  </si>
+  <si>
+    <t>aktuelle Liniennummer (nur Hofdatei-Modus)</t>
+  </si>
+  <si>
+    <t>aktueller Sonderzeichen-Code (nur Hofdatei-Modus)</t>
+  </si>
+  <si>
+    <t>Index der aktuellen Zielbeschilderung</t>
+  </si>
+  <si>
+    <t>Hofdatei-Index der nächsten bzw. bis siebtnächsten Haltestelle. "-1", wenn die Haltestelle nicht in der Hofdatei existiert (z.B. im Fahrplanmodus)</t>
+  </si>
+  <si>
+    <t>nuntius_output_busstopIndex0…7</t>
+  </si>
+  <si>
+    <t>Queue-Variable für die zugehörigen Events. Speichert, dass die Events am Ende im Event Loop ausgelöst werden sollen.</t>
+  </si>
+  <si>
+    <t>nuntius_output_lineString</t>
+  </si>
+  <si>
+    <t>nuntius_output_terminusString</t>
+  </si>
+  <si>
+    <t>aktueller Linienstring (im Hofdateimodus entspricht dies der Liniennummer als String)</t>
+  </si>
+  <si>
+    <t>aktuelle Endhaltestellenstring</t>
+  </si>
+  <si>
+    <t>Erste Textzeile des Innenanzeigen-Strings der n'ten Haltestelle (z.B. für eine wechselnde oder zweizeilige Innenanzeige)</t>
+  </si>
+  <si>
+    <t>Zweite Textzeile des Innenanzeigen-Strings der n'ten Haltestelle (z.B. für eine wechselnde oder zweizeilige Innenanzeige)</t>
+  </si>
+  <si>
+    <t>Gesamter Innenanzeigen-Strings der n'ten Haltestelle (z.B. für eine einzeilige Innenanzeige)</t>
+  </si>
+  <si>
+    <t>nuntius_output_busstopString0…7</t>
+  </si>
+  <si>
+    <t>nuntius_output_busstopString0…7first</t>
+  </si>
+  <si>
+    <t>nuntius_output_busstopString0…7second</t>
+  </si>
+  <si>
+    <t>nuntius_event_currentBusstopChanged</t>
+  </si>
+  <si>
+    <t>Die aktuelle Haltestelle hat sich geändert</t>
+  </si>
+  <si>
+    <t>nuntius_event_routeModeChanged</t>
+  </si>
+  <si>
+    <t>Der Routenmodus (kein/Hofdatei/Fahrplan) hat sich geändert</t>
+  </si>
+  <si>
+    <t>nuntius_event_terminusChanged</t>
+  </si>
+  <si>
+    <t>Das aktuelle Ziel hat sich geändert</t>
+  </si>
+  <si>
+    <t>nuntius_event_lineChanged</t>
+  </si>
+  <si>
+    <t>Die aktuelle Linennummer hat sich geändert</t>
+  </si>
+  <si>
+    <t>nuntius_event_pauseChanged</t>
+  </si>
+  <si>
+    <t>Die Pause wurde aktiviert oder deaktiviert</t>
+  </si>
+  <si>
+    <t>nuntius_printer_eventLoop</t>
+  </si>
+  <si>
+    <t>Aktualisiert in jedem Frame die Output-Variablen und löst ggf. Events aus</t>
+  </si>
+  <si>
+    <t>nuntius_printer_getBusstopIndexString</t>
+  </si>
+  <si>
+    <t>Haltestellenindex</t>
+  </si>
+  <si>
+    <t>Stringindex</t>
+  </si>
+  <si>
+    <t>Gibt zur gewählten Haltestelle den jeweiligen Hofdatei-String zurück, macht nichts, wenn der Haltestellenindex -1 ist.</t>
+  </si>
+  <si>
+    <t>Gibt den Index (nicht gefunden = -1) sowie einen Fallback-Namen der Haltestelle an Position x zurück</t>
+  </si>
+  <si>
+    <t>Gibt den Index (nicht gefunden = -1) sowie einen Fallback-Namen der letzten Haltestelle zurück</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1649,6 +1782,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1656,12 +1801,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,13 +2022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6342DB-177E-4DB4-A816-6FAE2022D46A}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1909,41 +2048,41 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1986,33 +2125,33 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" spans="1:2" ht="297" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>326</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -2041,10 +2180,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2105,10 +2244,10 @@
     </row>
     <row r="30" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -2169,10 +2308,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2244,106 +2383,106 @@
         <v>109</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -2352,10 +2491,10 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2504,87 +2643,191 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B89" s="11"/>
+      <c r="A89" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B89" s="15"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>435</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>440</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>441</v>
-      </c>
-      <c r="B91" s="10"/>
+        <v>436</v>
+      </c>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>442</v>
-      </c>
-      <c r="B92" s="10"/>
+        <v>437</v>
+      </c>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>443</v>
-      </c>
-      <c r="B93" s="10"/>
+        <v>438</v>
+      </c>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>444</v>
-      </c>
-      <c r="B94" s="10"/>
+        <v>439</v>
+      </c>
+      <c r="B94" s="14"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B96" s="13"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B99" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B100" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B102" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B107" s="14"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B108" s="14"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B109" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A62:B62"/>
@@ -2599,10 +2842,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E136590C-EA4F-4E21-9125-68A5EEB7EB45}">
-  <dimension ref="A1:B33"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2614,107 +2858,128 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>470</v>
+        <v>447</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B6" s="10"/>
+        <v>352</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" s="10"/>
+        <v>343</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B8" s="10"/>
+        <v>180</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>357</v>
+        <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>493</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>348</v>
+        <v>451</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>182</v>
+        <v>452</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>183</v>
+        <v>462</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2722,116 +2987,115 @@
         <v>459</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>461</v>
+        <v>183</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>468</v>
+        <v>184</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>462</v>
+        <v>185</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B28" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>488</v>
-      </c>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>489</v>
+        <v>510</v>
+      </c>
+      <c r="B30" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="B31" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>492</v>
+        <v>518</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:B8"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3135,67 +3399,67 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C34" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C35" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C37" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C39" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C40" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3206,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3229,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3271,7 +3535,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3286,864 +3550,948 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>400</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>530</v>
+      </c>
+      <c r="B31" t="s">
+        <v>531</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B33" t="s">
-        <v>387</v>
+      <c r="A33" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" t="s">
-        <v>253</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" t="s">
-        <v>264</v>
+        <v>260</v>
+      </c>
+      <c r="C36" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="D37" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="D43" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
-      </c>
-      <c r="D55" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B57" t="s">
-        <v>285</v>
+        <v>281</v>
+      </c>
+      <c r="D57" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>288</v>
-      </c>
-      <c r="D60" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>290</v>
+        <v>314</v>
+      </c>
+      <c r="D62" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" t="s">
+        <v>536</v>
+      </c>
+      <c r="D65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67" t="s">
+        <v>535</v>
+      </c>
+      <c r="D67" t="s">
+        <v>534</v>
+      </c>
+      <c r="E67" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>218</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
+        <v>292</v>
+      </c>
+      <c r="D69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" t="s">
         <v>293</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>314</v>
-      </c>
-      <c r="B65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>219</v>
-      </c>
-      <c r="B66" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>220</v>
       </c>
-      <c r="B67" t="s">
-        <v>295</v>
-      </c>
-      <c r="D67" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>315</v>
-      </c>
-      <c r="B68" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>223</v>
       </c>
-      <c r="B70" t="s">
-        <v>297</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B75" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>222</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="D75" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>224</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="C76" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>225</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>301</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>226</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D78" t="s">
         <v>303</v>
       </c>
-      <c r="C74" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>227</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>228</v>
-      </c>
-      <c r="B76" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>229</v>
-      </c>
-      <c r="B77" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B80" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>373</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>309</v>
+      <c r="A81" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>231</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="D82" s="10" t="s">
-        <v>310</v>
+        <v>228</v>
+      </c>
+      <c r="B82" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>232</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="D83" s="10"/>
+        <v>368</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="D84" s="10"/>
+        <v>229</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="D84" s="14" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="10"/>
-      <c r="D85" s="10"/>
+        <v>230</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="D86" s="10"/>
+        <v>231</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>236</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="D87" s="10"/>
+        <v>232</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>237</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="D88" s="10"/>
+        <v>233</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>238</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="D89" s="10"/>
+        <v>234</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>239</v>
-      </c>
-      <c r="B90" s="10"/>
-      <c r="D90" s="10"/>
+        <v>235</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>240</v>
-      </c>
-      <c r="B91" s="10"/>
-      <c r="D91" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>241</v>
-      </c>
-      <c r="B92" s="10"/>
-      <c r="D92" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>242</v>
-      </c>
-      <c r="B93" s="10"/>
-      <c r="D93" s="10"/>
+        <v>238</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>243</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="D94" s="10"/>
+        <v>239</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>244</v>
-      </c>
-      <c r="B95" s="10"/>
-      <c r="D95" s="10"/>
+        <v>240</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="D96" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>246</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="D97" s="10"/>
+        <v>242</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>360</v>
-      </c>
-      <c r="B98" s="10"/>
-      <c r="D98" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>361</v>
-      </c>
-      <c r="B99" s="10"/>
-      <c r="D99" s="10"/>
+        <v>244</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>362</v>
-      </c>
-      <c r="B100" s="10"/>
-      <c r="D100" s="10"/>
+        <v>355</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>374</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="D101" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>375</v>
-      </c>
-      <c r="B102" s="8"/>
-      <c r="D102" s="8"/>
+        <v>357</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="5"/>
-      <c r="D103" s="5"/>
+      <c r="A103" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>402</v>
+      <c r="A104" t="s">
+        <v>370</v>
       </c>
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>247</v>
-      </c>
-      <c r="B105" t="s">
-        <v>311</v>
-      </c>
+      <c r="B105" s="5"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>248</v>
-      </c>
-      <c r="B106" t="s">
-        <v>312</v>
-      </c>
+      <c r="A106" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="B107" t="s">
-        <v>389</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>377</v>
-      </c>
-      <c r="B110" t="s">
-        <v>390</v>
-      </c>
-      <c r="D110" t="s">
-        <v>391</v>
-      </c>
-      <c r="E110" t="s">
-        <v>392</v>
+      <c r="A109" t="s">
+        <v>371</v>
+      </c>
+      <c r="B109" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>378</v>
-      </c>
-      <c r="B111" t="s">
-        <v>393</v>
+      <c r="A111" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B112" t="s">
-        <v>394</v>
+        <v>385</v>
+      </c>
+      <c r="D112" t="s">
+        <v>386</v>
+      </c>
+      <c r="E112" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B113" t="s">
-        <v>395</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>375</v>
+      </c>
+      <c r="B115" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D82:D100"/>
-    <mergeCell ref="B81:B100"/>
+    <mergeCell ref="D84:D102"/>
+    <mergeCell ref="B83:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6003BB98-3E37-400F-815A-6004C868EC93}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23B2BF-F863-4407-8A09-42FD5FCEB891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF05D14-616C-48BE-A974-6685EB7A7A5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="552">
   <si>
     <t>Name</t>
   </si>
@@ -892,9 +892,6 @@
     <t>Aktualisiert die Zielvorschau</t>
   </si>
   <si>
-    <t>aktualisiert automatisch den Busstop-Index (springt ggf. eine Haltestelle weiter und spielt ggf. die Haltestellenansage ab)</t>
-  </si>
-  <si>
     <t>Springt zu einer Bushaltestelle</t>
   </si>
   <si>
@@ -1171,9 +1168,6 @@
   </si>
   <si>
     <t>Initialisiert die Fonts für die Skripttextur</t>
-  </si>
-  <si>
-    <t>Aktualisiert den Teil der Scripttextur (Uhrzeit und Verspätung) der standardmäßig in jedem Frame aktualisiert wird</t>
   </si>
   <si>
     <t>Rendert die gesamte Scripttextur neu</t>
@@ -1700,6 +1694,55 @@
   </si>
   <si>
     <t>Gibt den Index (nicht gefunden = -1) sowie einen Fallback-Namen der letzten Haltestelle zurück</t>
+  </si>
+  <si>
+    <t>nuntius_printer_distance_timer</t>
+  </si>
+  <si>
+    <t>nuntius_printer_distance_lastKmCounter_km</t>
+  </si>
+  <si>
+    <t>nuntius_printer_distance_lastKmCounter_m</t>
+  </si>
+  <si>
+    <t>nuntius_printer_distance_nextBusstopDistance</t>
+  </si>
+  <si>
+    <t>Timer für die Aktualisierung der Haltestellenabstandsanzeige</t>
+  </si>
+  <si>
+    <t>Kilometerstand (km) bei Abfahrt an der letzten Haltestelle</t>
+  </si>
+  <si>
+    <t>Kilometerstand (m) bei Abfahrt an der letzten Haltestelle</t>
+  </si>
+  <si>
+    <t>Distanz zur nächsten Haltestelle in Metern</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visBusstopDistance</t>
+  </si>
+  <si>
+    <t>Haltestellenabstandsanzeige</t>
+  </si>
+  <si>
+    <t>Aktualisiert den Teil der Scripttextur (Uhrzeit, Verspätung und Haltestellenabstand) der standardmäßig in jedem Frame aktualisiert wird</t>
+  </si>
+  <si>
+    <t>aktualisiert automatisch den Busstop-Index (springt ggf. eine Haltestelle weiter und spielt ggf. die Haltestellenansage ab)
+sorgt außerdem für ein Neuladen der Haltestellenabstandsanzeige</t>
+  </si>
+  <si>
+    <t>nuntius_printer_restartDistanceCalc</t>
+  </si>
+  <si>
+    <t>nuntius_printer_recalculateDistance</t>
+  </si>
+  <si>
+    <t>Setzt die Haltestellenabstandsanzeige zurück und startet den Messvorgang neu (z.B. beim Wechseln der Haltestelle)</t>
+  </si>
+  <si>
+    <t>Aktualisiert die Messung des Haltestellenabstandes im Sekundenabstand</t>
   </si>
 </sst>
 </file>
@@ -2025,10 +2068,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2048,34 +2091,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2135,23 +2178,23 @@
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -2180,10 +2223,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2244,10 +2287,10 @@
     </row>
     <row r="30" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -2308,10 +2351,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2383,457 +2426,497 @@
         <v>109</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>420</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>421</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B54" s="3" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>536</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>537</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>539</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="B63" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B56" s="15"/>
-    </row>
-    <row r="57" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>427</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>429</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>316</v>
+        <v>124</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>431</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>432</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B89" s="15"/>
+      <c r="A89" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>435</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>440</v>
+        <v>429</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>430</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B94" s="15"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>433</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>434</v>
+      </c>
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>436</v>
       </c>
-      <c r="B91" s="14"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>437</v>
       </c>
-      <c r="B92" s="14"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>438</v>
-      </c>
-      <c r="B93" s="14"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>439</v>
-      </c>
-      <c r="B94" s="14"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B96" s="13"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B99" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B100" t="s">
-        <v>503</v>
-      </c>
+      <c r="B99" s="14"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B101" t="s">
-        <v>504</v>
-      </c>
+      <c r="A101" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B102" t="s">
-        <v>505</v>
+        <v>486</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B103" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>507</v>
+        <v>488</v>
+      </c>
+      <c r="B104" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>509</v>
+        <v>489</v>
+      </c>
+      <c r="B105" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B106" s="14"/>
+        <v>490</v>
+      </c>
+      <c r="B106" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B107" s="14"/>
+        <v>491</v>
+      </c>
+      <c r="B107" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B108" s="14"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="B108" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B109" s="14"/>
+        <v>506</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B111" s="14"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" s="14"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B113" s="14"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B114" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="B110:B114"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A94:B94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2858,32 +2941,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2891,15 +2974,15 @@
         <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2907,7 +2990,7 @@
         <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2915,95 +2998,95 @@
         <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3011,7 +3094,7 @@
         <v>183</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3019,7 +3102,7 @@
         <v>184</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3027,69 +3110,69 @@
         <v>185</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B30" t="s">
         <v>510</v>
-      </c>
-      <c r="B30" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B31" t="s">
         <v>511</v>
-      </c>
-      <c r="B31" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3399,67 +3482,67 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" t="s">
         <v>405</v>
-      </c>
-      <c r="C35" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C37" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C39" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3470,10 +3553,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3535,7 +3618,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3569,10 +3652,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3588,44 +3671,44 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3681,23 +3764,23 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" t="s">
         <v>338</v>
-      </c>
-      <c r="B25" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C26" t="s">
         <v>251</v>
@@ -3727,10 +3810,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" t="s">
         <v>322</v>
-      </c>
-      <c r="B29" t="s">
-        <v>323</v>
       </c>
       <c r="C29" t="s">
         <v>251</v>
@@ -3738,10 +3821,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C30" t="s">
         <v>251</v>
@@ -3749,10 +3832,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B31" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C31" t="s">
         <v>251</v>
@@ -3760,23 +3843,23 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3886,26 +3969,26 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50" t="s">
         <v>358</v>
-      </c>
-      <c r="B50" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3986,12 +4069,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>212</v>
       </c>
-      <c r="B60" t="s">
-        <v>285</v>
+      <c r="B60" s="11" t="s">
+        <v>547</v>
       </c>
       <c r="C60" t="s">
         <v>251</v>
@@ -4002,21 +4085,21 @@
         <v>213</v>
       </c>
       <c r="B61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" t="s">
         <v>286</v>
-      </c>
-      <c r="D61" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" t="s">
         <v>313</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>314</v>
-      </c>
-      <c r="D62" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4024,7 +4107,7 @@
         <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4032,7 +4115,7 @@
         <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -4040,32 +4123,32 @@
         <v>216</v>
       </c>
       <c r="B65" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>530</v>
+      </c>
+      <c r="B67" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" t="s">
         <v>532</v>
       </c>
-      <c r="B67" t="s">
-        <v>535</v>
-      </c>
-      <c r="D67" t="s">
-        <v>534</v>
-      </c>
       <c r="E67" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4073,7 +4156,7 @@
         <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4081,356 +4164,375 @@
         <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70" t="s">
         <v>311</v>
-      </c>
-      <c r="B70" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>548</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
-      </c>
-      <c r="D72" t="s">
-        <v>295</v>
+        <v>551</v>
+      </c>
+      <c r="C72" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
-      </c>
-      <c r="C76" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="D77" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="C78" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>227</v>
       </c>
-      <c r="B79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>228</v>
-      </c>
-      <c r="B82" t="s">
-        <v>305</v>
+      <c r="B81" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>368</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>306</v>
+      <c r="A83" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>229</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="D84" s="14" t="s">
-        <v>307</v>
+        <v>228</v>
+      </c>
+      <c r="B84" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="D85" s="14"/>
+        <v>367</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="D86" s="14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B87" s="14"/>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B88" s="14"/>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B89" s="14"/>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B90" s="14"/>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B91" s="14"/>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B92" s="14"/>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B93" s="14"/>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B94" s="14"/>
       <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B95" s="14"/>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B96" s="14"/>
       <c r="D96" s="14"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B97" s="14"/>
       <c r="D97" s="14"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B98" s="14"/>
       <c r="D98" s="14"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B99" s="14"/>
       <c r="D99" s="14"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="B100" s="14"/>
       <c r="D100" s="14"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="B101" s="14"/>
       <c r="D101" s="14"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B102" s="14"/>
       <c r="D102" s="14"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>355</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>356</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>368</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>369</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>370</v>
-      </c>
-      <c r="B104" s="8"/>
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="5"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="5"/>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>245</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>246</v>
-      </c>
-      <c r="B108" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>371</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B114" t="s">
+        <v>383</v>
+      </c>
+      <c r="D114" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="E114" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>372</v>
       </c>
-      <c r="B112" t="s">
-        <v>385</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="B115" t="s">
         <v>386</v>
       </c>
-      <c r="E112" t="s">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>373</v>
+      </c>
+      <c r="B116" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>373</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>374</v>
+      </c>
+      <c r="B117" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>374</v>
-      </c>
-      <c r="B114" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>375</v>
-      </c>
-      <c r="B115" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D84:D102"/>
-    <mergeCell ref="B83:B102"/>
+    <mergeCell ref="D86:D104"/>
+    <mergeCell ref="B85:B104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4453,42 +4555,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF05D14-616C-48BE-A974-6685EB7A7A5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7948D-C147-4174-925D-2BD46F6A681E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="570">
   <si>
     <t>Name</t>
   </si>
@@ -992,12 +992,6 @@
   </si>
   <si>
     <t>Spielt eine Sonderansage ab</t>
-  </si>
-  <si>
-    <t>nuntius_printer_progressbarAnim</t>
-  </si>
-  <si>
-    <t>Animationsvariable für den Fortschrittsbalken</t>
   </si>
   <si>
     <t>nuntius_printer_autoOpenConfirmNextTripPage</t>
@@ -1744,12 +1738,81 @@
   <si>
     <t>Aktualisiert die Messung des Haltestellenabstandes im Sekundenabstand</t>
   </si>
+  <si>
+    <t>nuntius_printer_pleaseWaitReason</t>
+  </si>
+  <si>
+    <t>nuntius_printer_pleaseWaitDuration</t>
+  </si>
+  <si>
+    <t>nuntius_printer_targetPage</t>
+  </si>
+  <si>
+    <t>Wartezeit-Dauer in Sekunden</t>
+  </si>
+  <si>
+    <t>Timer für die Wartezeit. "Wie lange wurde bereits gewartet?"</t>
+  </si>
+  <si>
+    <t>Ziel-Page nach Ablauf der Wartezeit</t>
+  </si>
+  <si>
+    <t>Enum-Wert für den Grund der Wartezeit, die gestartet wurde.
+-1 = undefiniert
+0 = Fahrerkarte einlesen
+1 = Login prüfen
+2 = Login nach der Pause prüfen
+3 = Routeneingabe prüfen
+4 = Ziel prüfen
+5 = Warten auf Ticketdruck
+6 = Pause aktivieren
+7 = Abmelden</t>
+  </si>
+  <si>
+    <t>nuntius_printer_visLoadingInfo</t>
+  </si>
+  <si>
+    <t>Informationstext auf dem Ladebildschrim</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_loadingInfo</t>
+  </si>
+  <si>
+    <t>Lade- und Fehlermeldungsinfotext</t>
+  </si>
+  <si>
+    <t>nuntius_printer_updateWaitTimer</t>
+  </si>
+  <si>
+    <t>Aktualisiert den Wartezeit-Timer für die Simulation von Ladezeiten</t>
+  </si>
+  <si>
+    <t>nuntius_printer_startWaitTime</t>
+  </si>
+  <si>
+    <t>nuntius_printer_goToPageAfterWaitTime</t>
+  </si>
+  <si>
+    <t>Öffnet die "Bitte Warten"-Seite für die Ladezeit-Simulation</t>
+  </si>
+  <si>
+    <t>Wartezeit in Sekunden</t>
+  </si>
+  <si>
+    <t>Wait-Reason für die Ladezeit</t>
+  </si>
+  <si>
+    <t>Zielseite nach Ablauf der Wartezeit</t>
+  </si>
+  <si>
+    <t>Startet die Wartezeit mit dem gegebenen Wartegrund</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,14 +1833,6 @@
       <color rgb="FF953800"/>
       <name val="JetBrains Mono SemiBold"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1800,7 +1855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1816,9 +1871,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2068,10 +2120,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2091,41 +2143,41 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2168,33 +2220,33 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" ht="297" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -2223,10 +2275,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2287,10 +2339,10 @@
     </row>
     <row r="30" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -2351,10 +2403,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2426,497 +2478,524 @@
         <v>109</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>320</v>
+        <v>550</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>350</v>
+      <c r="A49" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>339</v>
+      <c r="A50" t="s">
+        <v>348</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>340</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>333</v>
+      <c r="A51" t="s">
+        <v>552</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>336</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>420</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>421</v>
+      <c r="A54" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>536</v>
+        <v>418</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>537</v>
+        <v>419</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>534</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>535</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>543</v>
-      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59"/>
+      <c r="A59" t="s">
+        <v>536</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" t="s">
+        <v>537</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B60" s="15"/>
-    </row>
-    <row r="61" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>425</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>427</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>127</v>
+        <v>557</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>176</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>429</v>
+      <c r="A90" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>431</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>430</v>
+      <c r="A91" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>432</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>544</v>
+        <v>322</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>545</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93"/>
+      <c r="A93" t="s">
+        <v>427</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B94" s="15"/>
+      <c r="A94" t="s">
+        <v>428</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>433</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>438</v>
+      <c r="A95" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>434</v>
-      </c>
-      <c r="B96" s="14"/>
+      <c r="A96"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>435</v>
+      <c r="A97" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="B97" s="14"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="B98" s="14"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>437</v>
-      </c>
-      <c r="B99" s="14"/>
+        <v>432</v>
+      </c>
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>433</v>
+      </c>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
-        <v>485</v>
+      <c r="A101" t="s">
+        <v>434</v>
       </c>
       <c r="B101" s="13"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>499</v>
-      </c>
+      <c r="A102" t="s">
+        <v>435</v>
+      </c>
+      <c r="B102" s="13"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B104" t="s">
-        <v>500</v>
-      </c>
+      <c r="A104" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B104" s="12"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B105" t="s">
-        <v>501</v>
+        <v>484</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B106" t="s">
-        <v>502</v>
+        <v>485</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B107" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B108" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>505</v>
+        <v>488</v>
+      </c>
+      <c r="B109" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>507</v>
+        <v>489</v>
+      </c>
+      <c r="B110" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B111" s="14"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="B111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B112" s="14"/>
+        <v>504</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B113" s="14"/>
+        <v>491</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B114" s="14"/>
+        <v>492</v>
+      </c>
+      <c r="B114" s="13"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B115" s="13"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B116" s="13"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B117" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="B113:B117"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A97:B97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2926,10 +3005,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E136590C-EA4F-4E21-9125-68A5EEB7EB45}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2941,32 +3020,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>461</v>
+        <v>443</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="14"/>
+        <v>444</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2974,15 +3053,15 @@
         <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2990,7 +3069,7 @@
         <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2998,187 +3077,195 @@
         <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>183</v>
+        <v>559</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>478</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>454</v>
+        <v>185</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="B29" s="13"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B30" t="s">
-        <v>510</v>
-      </c>
+      <c r="A30" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B31" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B32" t="s">
         <v>509</v>
-      </c>
-      <c r="B31" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="11" t="s">
         <v>514</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3491,58 +3578,58 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C35" t="s">
         <v>403</v>
-      </c>
-      <c r="C35" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C39" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3553,10 +3640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3618,7 +3705,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3652,10 +3739,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3671,44 +3758,44 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3764,23 +3851,23 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
         <v>251</v>
@@ -3810,10 +3897,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
         <v>251</v>
@@ -3821,10 +3908,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
         <v>251</v>
@@ -3832,707 +3919,754 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C31" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>393</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>561</v>
+      </c>
+      <c r="B32" t="s">
+        <v>562</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>365</v>
-      </c>
-      <c r="B34" t="s">
-        <v>380</v>
+      <c r="A34" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D37" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="C37" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="D38" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
-      </c>
-      <c r="D43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="D44" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
-      </c>
-      <c r="D56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>211</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C61" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" t="s">
-        <v>285</v>
-      </c>
-      <c r="D61" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>313</v>
+      </c>
+      <c r="D63" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>534</v>
-      </c>
-      <c r="D65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="D66" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>530</v>
+        <v>309</v>
       </c>
       <c r="B67" t="s">
         <v>533</v>
       </c>
-      <c r="D67" t="s">
-        <v>532</v>
-      </c>
-      <c r="E67" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>528</v>
       </c>
       <c r="B68" t="s">
-        <v>289</v>
+        <v>531</v>
+      </c>
+      <c r="D68" t="s">
+        <v>530</v>
+      </c>
+      <c r="E68" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
-      </c>
-      <c r="D69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>311</v>
+        <v>291</v>
+      </c>
+      <c r="D70" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>548</v>
+        <v>310</v>
       </c>
       <c r="B71" t="s">
-        <v>550</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B72" t="s">
-        <v>551</v>
-      </c>
-      <c r="C72" t="s">
-        <v>251</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>547</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>549</v>
+      </c>
+      <c r="C73" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
-      </c>
-      <c r="D74" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="D75" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" t="s">
-        <v>251</v>
+        <v>297</v>
+      </c>
+      <c r="D78" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="C79" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>564</v>
+      </c>
+      <c r="B81" t="s">
+        <v>565</v>
+      </c>
+      <c r="D81" t="s">
+        <v>566</v>
+      </c>
+      <c r="E81" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>563</v>
+      </c>
+      <c r="B82" t="s">
+        <v>569</v>
+      </c>
+      <c r="D82" t="s">
+        <v>566</v>
+      </c>
+      <c r="E82" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>226</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>301</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D83" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>227</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>228</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>367</v>
-      </c>
-      <c r="B85" s="14" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>365</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="D88" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="D86" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B89" s="13"/>
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>230</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="D87" s="14"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B90" s="13"/>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>231</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="D88" s="14"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B91" s="13"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B92" s="13"/>
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>233</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="D90" s="14"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B93" s="13"/>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>234</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="D91" s="14"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B94" s="13"/>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>235</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="D92" s="14"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>236</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="D93" s="14"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>237</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="D94" s="14"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>238</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="D95" s="14"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="13"/>
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>239</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="D96" s="14"/>
+        <v>557</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>240</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="D97" s="14"/>
+        <v>236</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>241</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="D98" s="14"/>
+        <v>237</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>242</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="D99" s="14"/>
+        <v>238</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>243</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="D100" s="14"/>
+        <v>239</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>244</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="D101" s="14"/>
+        <v>240</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>354</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="D102" s="14"/>
+        <v>241</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>355</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="D103" s="14"/>
+        <v>242</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>356</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="D104" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>368</v>
-      </c>
-      <c r="B105" s="8"/>
-      <c r="D105" s="8"/>
+        <v>244</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>369</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="D106" s="8"/>
+        <v>352</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="A107" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="A108" t="s">
+        <v>354</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>245</v>
-      </c>
-      <c r="B109" t="s">
-        <v>307</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>246</v>
-      </c>
-      <c r="B110" t="s">
-        <v>308</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>370</v>
-      </c>
-      <c r="B111" t="s">
-        <v>382</v>
-      </c>
+      <c r="B111" s="5"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>396</v>
+      <c r="A113" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="B114" t="s">
-        <v>383</v>
-      </c>
-      <c r="D114" t="s">
-        <v>384</v>
-      </c>
-      <c r="E114" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>368</v>
+      </c>
+      <c r="B115" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>369</v>
+      </c>
+      <c r="B118" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" t="s">
+        <v>382</v>
+      </c>
+      <c r="E118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>372</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B121" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>373</v>
-      </c>
-      <c r="B116" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>374</v>
-      </c>
-      <c r="B117" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D86:D104"/>
-    <mergeCell ref="B85:B104"/>
+    <mergeCell ref="B88:B110"/>
+    <mergeCell ref="D88:D110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4554,43 +4688,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation.xlsx
+++ b/Dokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7948D-C147-4174-925D-2BD46F6A681E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9BA63-8698-4BBC-948A-A38E6B6A3155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="2" r:id="rId1"/>
@@ -1757,6 +1757,45 @@
     <t>Ziel-Page nach Ablauf der Wartezeit</t>
   </si>
   <si>
+    <t>nuntius_printer_visLoadingInfo</t>
+  </si>
+  <si>
+    <t>Informationstext auf dem Ladebildschrim</t>
+  </si>
+  <si>
+    <t>nuntius_printer_ui_loadingInfo</t>
+  </si>
+  <si>
+    <t>Lade- und Fehlermeldungsinfotext</t>
+  </si>
+  <si>
+    <t>nuntius_printer_updateWaitTimer</t>
+  </si>
+  <si>
+    <t>Aktualisiert den Wartezeit-Timer für die Simulation von Ladezeiten</t>
+  </si>
+  <si>
+    <t>nuntius_printer_startWaitTime</t>
+  </si>
+  <si>
+    <t>nuntius_printer_goToPageAfterWaitTime</t>
+  </si>
+  <si>
+    <t>Öffnet die "Bitte Warten"-Seite für die Ladezeit-Simulation</t>
+  </si>
+  <si>
+    <t>Wartezeit in Sekunden</t>
+  </si>
+  <si>
+    <t>Wait-Reason für die Ladezeit</t>
+  </si>
+  <si>
+    <t>Zielseite nach Ablauf der Wartezeit</t>
+  </si>
+  <si>
+    <t>Startet die Wartezeit mit dem gegebenen Wartegrund</t>
+  </si>
+  <si>
     <t>Enum-Wert für den Grund der Wartezeit, die gestartet wurde.
 -1 = undefiniert
 0 = Fahrerkarte einlesen
@@ -1766,46 +1805,8 @@
 4 = Ziel prüfen
 5 = Warten auf Ticketdruck
 6 = Pause aktivieren
-7 = Abmelden</t>
-  </si>
-  <si>
-    <t>nuntius_printer_visLoadingInfo</t>
-  </si>
-  <si>
-    <t>Informationstext auf dem Ladebildschrim</t>
-  </si>
-  <si>
-    <t>nuntius_printer_ui_loadingInfo</t>
-  </si>
-  <si>
-    <t>Lade- und Fehlermeldungsinfotext</t>
-  </si>
-  <si>
-    <t>nuntius_printer_updateWaitTimer</t>
-  </si>
-  <si>
-    <t>Aktualisiert den Wartezeit-Timer für die Simulation von Ladezeiten</t>
-  </si>
-  <si>
-    <t>nuntius_printer_startWaitTime</t>
-  </si>
-  <si>
-    <t>nuntius_printer_goToPageAfterWaitTime</t>
-  </si>
-  <si>
-    <t>Öffnet die "Bitte Warten"-Seite für die Ladezeit-Simulation</t>
-  </si>
-  <si>
-    <t>Wartezeit in Sekunden</t>
-  </si>
-  <si>
-    <t>Wait-Reason für die Ladezeit</t>
-  </si>
-  <si>
-    <t>Zielseite nach Ablauf der Wartezeit</t>
-  </si>
-  <si>
-    <t>Startet die Wartezeit mit dem gegebenen Wartegrund</t>
+7 = Abmelden
+10 = Fahrerkarte nach der Pause einlesen</t>
   </si>
 </sst>
 </file>
@@ -2122,8 +2123,8 @@
   </sheetPr>
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2481,12 +2482,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2765,10 +2766,10 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3170,10 +3171,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3642,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CEF75-956F-4D6D-ADE3-21264BBAF87D}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:B110"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3930,10 +3931,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>560</v>
+      </c>
+      <c r="B32" t="s">
         <v>561</v>
-      </c>
-      <c r="B32" t="s">
-        <v>562</v>
       </c>
       <c r="C32" t="s">
         <v>251</v>
@@ -4362,30 +4363,30 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>563</v>
+      </c>
+      <c r="B81" t="s">
         <v>564</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>565</v>
       </c>
-      <c r="D81" t="s">
-        <v>566</v>
-      </c>
       <c r="E81" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B82" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D82" t="s">
+        <v>565</v>
+      </c>
+      <c r="E82" t="s">
         <v>566</v>
-      </c>
-      <c r="E82" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -4482,7 +4483,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B96" s="13"/>
       <c r="D96" s="13"/>
